--- a/shearwall_data_R3.xlsx
+++ b/shearwall_data_R3.xlsx
@@ -737,7 +737,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="ShearWallPlot"/>
+        <xdr:cNvPr id="5" name="ShearWallPlot"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2192,7 +2192,7 @@
   <dimension ref="B1:AM61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="M3" s="44">
         <f ca="1">NOW()</f>
-        <v>45668.38619409722</v>
+        <v>45669.347327199073</v>
       </c>
       <c r="N3" s="44"/>
       <c r="O3" s="15"/>
@@ -2343,7 +2343,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="38">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>14</v>
@@ -2453,7 +2453,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="31">
-        <v>40.237418469837962</v>
+        <v>25</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>14</v>
@@ -2465,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="31">
-        <v>8.3340101015906072</v>
+        <v>0</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>14</v>
@@ -2515,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="31">
-        <v>24.976167621065173</v>
+        <v>25</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>14</v>
@@ -2527,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="31">
-        <v>1.3804229402141104</v>
+        <v>0</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>14</v>
@@ -2615,7 +2615,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="31">
-        <v>48.571428571428569</v>
+        <v>25</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>14</v>
@@ -2665,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="31">
-        <v>23.595744680851062</v>
+        <v>25</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>14</v>
@@ -2753,7 +2753,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="40">
-        <v>150519.25941332532</v>
+        <v>62500</v>
       </c>
       <c r="K19" s="15"/>
       <c r="AD19" s="13" t="s">
@@ -2801,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="40">
-        <v>43785.788327162234</v>
+        <v>62500</v>
       </c>
       <c r="K20" s="15"/>
       <c r="AD20" s="13" t="s">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="J22" s="39">
         <f>J10*J11</f>
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>85</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="J23" s="39">
         <f>2.39*J22</f>
-        <v>9560</v>
+        <v>5975</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>88</v>
@@ -3150,16 +3150,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="28">
-        <v>40.237418469837962</v>
+        <v>25</v>
       </c>
       <c r="J29" s="32">
-        <v>0.53191489361702127</v>
+        <v>0.5</v>
       </c>
       <c r="K29" s="28">
-        <v>16.334010101590607</v>
+        <v>5</v>
       </c>
       <c r="L29" s="11">
-        <v>0.53405348604043179</v>
+        <v>0.502</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>53</v>
@@ -3168,28 +3168,28 @@
         <v>1</v>
       </c>
       <c r="Q29" s="21">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R29" s="13">
         <v>3.2</v>
       </c>
       <c r="S29" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T29" s="21">
         <v>0</v>
       </c>
       <c r="U29" s="28">
-        <v>24.976167621065173</v>
+        <v>25</v>
       </c>
       <c r="V29" s="11">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="W29" s="29">
-        <v>6.3804229402141104</v>
+        <v>5</v>
       </c>
       <c r="X29" s="11">
-        <v>0.28856637181062889</v>
+        <v>0.502</v>
       </c>
       <c r="AC29" s="11">
         <v>0</v>
@@ -3218,28 +3218,28 @@
         <v>2</v>
       </c>
       <c r="E30" s="21">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F30" s="13">
         <v>3.2</v>
       </c>
       <c r="G30" s="21">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H30" s="21">
         <v>0</v>
       </c>
       <c r="I30" s="28">
-        <v>39.762581530162038</v>
+        <v>25</v>
       </c>
       <c r="J30" s="32">
-        <v>0.46808510638297873</v>
+        <v>0.5</v>
       </c>
       <c r="K30" s="28">
-        <v>16.334010101590607</v>
+        <v>5</v>
       </c>
       <c r="L30" s="11">
-        <v>0.47019846153421418</v>
+        <v>0.502</v>
       </c>
       <c r="O30" s="13" t="s">
         <v>54</v>
@@ -3254,22 +3254,22 @@
         <v>3.2</v>
       </c>
       <c r="S30" s="21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T30" s="21">
         <v>50</v>
       </c>
       <c r="U30" s="28">
-        <v>25.023832378934827</v>
+        <v>25</v>
       </c>
       <c r="V30" s="11">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="W30" s="29">
-        <v>6.3804229402141104</v>
+        <v>5</v>
       </c>
       <c r="X30" s="11">
-        <v>0.71714324333052215</v>
+        <v>0.502</v>
       </c>
       <c r="AC30" s="11">
         <v>1</v>

--- a/shearwall_data_R3.xlsx
+++ b/shearwall_data_R3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>Wall ID</t>
   </si>
@@ -531,7 +531,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -608,6 +608,15 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,7 +746,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="ShearWallPlot"/>
+        <xdr:cNvPr id="16" name="ShearWallPlot"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2192,7 +2201,7 @@
   <dimension ref="B1:AM61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2267,7 +2276,7 @@
       </c>
       <c r="M3" s="44">
         <f ca="1">NOW()</f>
-        <v>45669.347327199073</v>
+        <v>45669.785043750002</v>
       </c>
       <c r="N3" s="44"/>
       <c r="O3" s="15"/>
@@ -2348,7 +2357,12 @@
       <c r="K10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="2:39" x14ac:dyDescent="0.2">
       <c r="D11" s="15" t="s">
@@ -2369,7 +2383,12 @@
       <c r="K11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="AD11" s="13" t="s">
         <v>20</v>
       </c>
@@ -2408,6 +2427,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="30"/>
       <c r="K12" s="24"/>
+      <c r="M12" s="49"/>
       <c r="AD12" s="13" t="s">
         <v>21</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="31">
-        <v>25</v>
+        <v>25.028173166322986</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>14</v>
@@ -2465,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="31">
-        <v>0</v>
+        <v>10.833163282944582</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>14</v>
@@ -2515,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="31">
-        <v>25</v>
+        <v>24.987196142941343</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>14</v>
@@ -2527,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="31">
-        <v>0</v>
+        <v>3.2911080514203412</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>14</v>
@@ -2615,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="31">
-        <v>25</v>
+        <v>35.861336449267569</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>14</v>
@@ -2665,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="31">
-        <v>25</v>
+        <v>21.696088091521002</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>14</v>
@@ -2753,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="40">
-        <v>62500</v>
+        <v>21153.219729859389</v>
       </c>
       <c r="K19" s="15"/>
       <c r="AD19" s="13" t="s">
@@ -2801,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="40">
-        <v>62500</v>
+        <v>7607.6975547618522</v>
       </c>
       <c r="K20" s="15"/>
       <c r="AD20" s="13" t="s">
@@ -3131,65 +3151,65 @@
       </c>
     </row>
     <row r="29" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="45">
         <v>1</v>
       </c>
-      <c r="E29" s="21">
-        <v>50</v>
-      </c>
-      <c r="F29" s="13">
-        <v>3.2</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0</v>
+      <c r="E29" s="47">
+        <v>4.6341463414634143</v>
+      </c>
+      <c r="F29" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G29" s="47">
+        <v>2.1036585365853662</v>
+      </c>
+      <c r="H29" s="47">
+        <v>23.658536585365852</v>
       </c>
       <c r="I29" s="28">
-        <v>25</v>
+        <v>22.924514629737619</v>
       </c>
       <c r="J29" s="32">
-        <v>0.5</v>
+        <v>3.9874081846799567E-2</v>
       </c>
       <c r="K29" s="28">
-        <v>5</v>
+        <v>15.833163282944582</v>
       </c>
       <c r="L29" s="11">
-        <v>0.502</v>
-      </c>
-      <c r="O29" s="13" t="s">
+        <v>4.5292763948744055E-2</v>
+      </c>
+      <c r="O29" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="50">
         <v>1</v>
       </c>
-      <c r="Q29" s="21">
-        <v>50</v>
-      </c>
-      <c r="R29" s="13">
-        <v>3.2</v>
-      </c>
-      <c r="S29" s="21">
-        <v>0</v>
-      </c>
-      <c r="T29" s="21">
-        <v>0</v>
+      <c r="Q29" s="52">
+        <v>5.1524390243902438</v>
+      </c>
+      <c r="R29" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S29" s="52">
+        <v>12.774390243902401</v>
+      </c>
+      <c r="T29" s="52">
+        <v>18.841463414634145</v>
       </c>
       <c r="U29" s="28">
-        <v>25</v>
+        <v>6.1457327283071983</v>
       </c>
       <c r="V29" s="11">
-        <v>0.5</v>
+        <v>8.272148800783162E-2</v>
       </c>
       <c r="W29" s="29">
-        <v>5</v>
+        <v>8.2911080514203412</v>
       </c>
       <c r="X29" s="11">
-        <v>0.502</v>
+        <v>8.6760642222407633E-2</v>
       </c>
       <c r="AC29" s="11">
         <v>0</v>
@@ -3211,65 +3231,65 @@
       </c>
     </row>
     <row r="30" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="45">
         <v>2</v>
       </c>
-      <c r="E30" s="21">
-        <v>50</v>
-      </c>
-      <c r="F30" s="13">
-        <v>3.2</v>
-      </c>
-      <c r="G30" s="21">
-        <v>50</v>
-      </c>
-      <c r="H30" s="21">
-        <v>0</v>
+      <c r="E30" s="47">
+        <v>6.7682926829268295</v>
+      </c>
+      <c r="F30" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G30" s="47">
+        <v>9.7560975609756095</v>
+      </c>
+      <c r="H30" s="47">
+        <v>24.115853658536587</v>
       </c>
       <c r="I30" s="28">
-        <v>25</v>
+        <v>15.272075605347377</v>
       </c>
       <c r="J30" s="32">
-        <v>0.5</v>
+        <v>5.8237145855194114E-2</v>
       </c>
       <c r="K30" s="28">
-        <v>5</v>
+        <v>15.833163282944582</v>
       </c>
       <c r="L30" s="11">
-        <v>0.502</v>
-      </c>
-      <c r="O30" s="13" t="s">
+        <v>6.1847016078352073E-2</v>
+      </c>
+      <c r="O30" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="50">
         <v>2</v>
       </c>
-      <c r="Q30" s="21">
-        <v>50</v>
-      </c>
-      <c r="R30" s="13">
-        <v>3.2</v>
-      </c>
-      <c r="S30" s="21">
-        <v>0</v>
-      </c>
-      <c r="T30" s="21">
-        <v>50</v>
+      <c r="Q30" s="52">
+        <v>5.7926829268292686</v>
+      </c>
+      <c r="R30" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S30" s="52">
+        <v>25.2134146341463</v>
+      </c>
+      <c r="T30" s="52">
+        <v>18.841463414634145</v>
       </c>
       <c r="U30" s="28">
-        <v>25</v>
+        <v>6.1457327283071983</v>
       </c>
       <c r="V30" s="11">
-        <v>0.5</v>
+        <v>9.3000489476260398E-2</v>
       </c>
       <c r="W30" s="29">
-        <v>5</v>
+        <v>8.2911080514203412</v>
       </c>
       <c r="X30" s="11">
-        <v>0.502</v>
+        <v>9.7039643690836411E-2</v>
       </c>
       <c r="AC30" s="11">
         <v>1</v>
@@ -3291,23 +3311,66 @@
       </c>
     </row>
     <row r="31" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="28"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="28"/>
-      <c r="W31" s="29"/>
+      <c r="C31" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="45">
+        <v>3</v>
+      </c>
+      <c r="E31" s="47">
+        <v>4.0853658536585371</v>
+      </c>
+      <c r="F31" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G31" s="47">
+        <v>9.7560975609756095</v>
+      </c>
+      <c r="H31" s="47">
+        <v>16.371951219512198</v>
+      </c>
+      <c r="I31" s="28">
+        <v>15.272075605347377</v>
+      </c>
+      <c r="J31" s="32">
+        <v>3.5152151101783838E-2</v>
+      </c>
+      <c r="K31" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L31" s="11">
+        <v>3.8762021324941796E-2</v>
+      </c>
+      <c r="O31" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="50">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="52">
+        <v>3.8414634146341466</v>
+      </c>
+      <c r="R31" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S31" s="52">
+        <v>31.6768292682927</v>
+      </c>
+      <c r="T31" s="52">
+        <v>18.841463414634145</v>
+      </c>
+      <c r="U31" s="28">
+        <v>6.1457327283071983</v>
+      </c>
+      <c r="V31" s="11">
+        <v>6.1674008810572688E-2</v>
+      </c>
+      <c r="W31" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X31" s="11">
+        <v>6.5713163025148708E-2</v>
+      </c>
       <c r="AC31" s="11">
         <v>2</v>
       </c>
@@ -3328,23 +3391,66 @@
       </c>
     </row>
     <row r="32" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="28"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="28"/>
-      <c r="W32" s="29"/>
+      <c r="C32" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="45">
+        <v>4</v>
+      </c>
+      <c r="E32" s="47">
+        <v>4.0853658536585371</v>
+      </c>
+      <c r="F32" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G32" s="47">
+        <v>9.7560975609756095</v>
+      </c>
+      <c r="H32" s="47">
+        <v>16.371951219512198</v>
+      </c>
+      <c r="I32" s="28">
+        <v>15.272075605347377</v>
+      </c>
+      <c r="J32" s="32">
+        <v>3.5152151101783838E-2</v>
+      </c>
+      <c r="K32" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L32" s="11">
+        <v>3.8762021324941796E-2</v>
+      </c>
+      <c r="O32" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="50">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="52">
+        <v>4.5731707317073171</v>
+      </c>
+      <c r="R32" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S32" s="52">
+        <v>37.652439024390198</v>
+      </c>
+      <c r="T32" s="52">
+        <v>18.841463414634145</v>
+      </c>
+      <c r="U32" s="28">
+        <v>6.1457327283071983</v>
+      </c>
+      <c r="V32" s="11">
+        <v>7.3421439060205582E-2</v>
+      </c>
+      <c r="W32" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X32" s="11">
+        <v>7.7460593274781595E-2</v>
+      </c>
       <c r="AC32" s="11">
         <v>3</v>
       </c>
@@ -3365,23 +3471,66 @@
       </c>
     </row>
     <row r="33" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="28"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="28"/>
-      <c r="W33" s="29"/>
+      <c r="C33" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="45">
+        <v>5</v>
+      </c>
+      <c r="E33" s="47">
+        <v>7.5914634146341466</v>
+      </c>
+      <c r="F33" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G33" s="47">
+        <v>12.652439024390244</v>
+      </c>
+      <c r="H33" s="47">
+        <v>24.527439024390247</v>
+      </c>
+      <c r="I33" s="28">
+        <v>12.375734141932742</v>
+      </c>
+      <c r="J33" s="32">
+        <v>6.5320041972717721E-2</v>
+      </c>
+      <c r="K33" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L33" s="11">
+        <v>6.8245302122231372E-2</v>
+      </c>
+      <c r="O33" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="50">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="52">
+        <v>6.6768292682926829</v>
+      </c>
+      <c r="R33" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S33" s="52">
+        <v>18.978658536585399</v>
+      </c>
+      <c r="T33" s="52">
+        <v>20.54878048780488</v>
+      </c>
+      <c r="U33" s="28">
+        <v>4.4384156551364633</v>
+      </c>
+      <c r="V33" s="11">
+        <v>0.10719530102790015</v>
+      </c>
+      <c r="W33" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X33" s="11">
+        <v>0.11011235682775798</v>
+      </c>
       <c r="AC33" s="11">
         <v>4</v>
       </c>
@@ -3402,23 +3551,66 @@
       </c>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="28"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="28"/>
-      <c r="W34" s="29"/>
+      <c r="C34" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="45">
+        <v>6</v>
+      </c>
+      <c r="E34" s="47">
+        <v>7.6219512195121952</v>
+      </c>
+      <c r="F34" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G34" s="47">
+        <v>18.902439024390244</v>
+      </c>
+      <c r="H34" s="47">
+        <v>24.390243902439025</v>
+      </c>
+      <c r="I34" s="28">
+        <v>6.1257341419327425</v>
+      </c>
+      <c r="J34" s="32">
+        <v>6.5582371458551933E-2</v>
+      </c>
+      <c r="K34" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L34" s="11">
+        <v>6.7030315133359455E-2</v>
+      </c>
+      <c r="O34" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="50">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="52">
+        <v>6.524390243902439</v>
+      </c>
+      <c r="R34" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S34" s="52">
+        <v>27.408536585365901</v>
+      </c>
+      <c r="T34" s="52">
+        <v>20.54878048780488</v>
+      </c>
+      <c r="U34" s="28">
+        <v>4.4384156551364633</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0.10474791972589328</v>
+      </c>
+      <c r="W34" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X34" s="11">
+        <v>0.10766497552575112</v>
+      </c>
       <c r="AC34" s="11">
         <v>5</v>
       </c>
@@ -3439,23 +3631,66 @@
       </c>
     </row>
     <row r="35" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="28"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="28"/>
-      <c r="W35" s="29"/>
+      <c r="C35" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="45">
+        <v>7</v>
+      </c>
+      <c r="E35" s="47">
+        <v>7.6219512195121952</v>
+      </c>
+      <c r="F35" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G35" s="47">
+        <v>18.902439024390244</v>
+      </c>
+      <c r="H35" s="47">
+        <v>14.939024390243903</v>
+      </c>
+      <c r="I35" s="28">
+        <v>6.1257341419327425</v>
+      </c>
+      <c r="J35" s="32">
+        <v>6.5582371458551933E-2</v>
+      </c>
+      <c r="K35" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L35" s="11">
+        <v>6.7030315133359455E-2</v>
+      </c>
+      <c r="O35" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="50">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="52">
+        <v>5.8841463414634152</v>
+      </c>
+      <c r="R35" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S35" s="52">
+        <v>34.954268292682897</v>
+      </c>
+      <c r="T35" s="52">
+        <v>20.54878048780488</v>
+      </c>
+      <c r="U35" s="28">
+        <v>4.4384156551364633</v>
+      </c>
+      <c r="V35" s="11">
+        <v>9.4468918257464521E-2</v>
+      </c>
+      <c r="W35" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X35" s="11">
+        <v>9.7385974057322355E-2</v>
+      </c>
       <c r="AC35" s="11">
         <v>6</v>
       </c>
@@ -3476,23 +3711,66 @@
       </c>
     </row>
     <row r="36" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="28"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="28"/>
-      <c r="W36" s="29"/>
+      <c r="C36" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="45">
+        <v>8</v>
+      </c>
+      <c r="E36" s="47">
+        <v>7.6219512195121952</v>
+      </c>
+      <c r="F36" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G36" s="47">
+        <v>25.152439024390244</v>
+      </c>
+      <c r="H36" s="47">
+        <v>24.390243902439025</v>
+      </c>
+      <c r="I36" s="28">
+        <v>0.12426585806725754</v>
+      </c>
+      <c r="J36" s="32">
+        <v>6.5582371458551933E-2</v>
+      </c>
+      <c r="K36" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L36" s="11">
+        <v>6.5611744258450538E-2</v>
+      </c>
+      <c r="O36" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" s="50">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="52">
+        <v>6.5853658536585371</v>
+      </c>
+      <c r="R36" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S36" s="52">
+        <v>45.975609756097597</v>
+      </c>
+      <c r="T36" s="52">
+        <v>19.969512195121954</v>
+      </c>
+      <c r="U36" s="28">
+        <v>5.0176839478193891</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0.10572687224669604</v>
+      </c>
+      <c r="W36" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X36" s="11">
+        <v>0.1090246400086904</v>
+      </c>
       <c r="AC36" s="11">
         <v>7</v>
       </c>
@@ -3513,23 +3791,66 @@
       </c>
     </row>
     <row r="37" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="28"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="28"/>
-      <c r="W37" s="29"/>
+      <c r="C37" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="45">
+        <v>9</v>
+      </c>
+      <c r="E37" s="47">
+        <v>7.6219512195121952</v>
+      </c>
+      <c r="F37" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G37" s="47">
+        <v>25.457317073170735</v>
+      </c>
+      <c r="H37" s="47">
+        <v>14.939024390243903</v>
+      </c>
+      <c r="I37" s="28">
+        <v>0.42914390684774872</v>
+      </c>
+      <c r="J37" s="32">
+        <v>6.5582371458551933E-2</v>
+      </c>
+      <c r="K37" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L37" s="11">
+        <v>6.5683808476728889E-2</v>
+      </c>
+      <c r="O37" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" s="50">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="52">
+        <v>7.8963414634146343</v>
+      </c>
+      <c r="R37" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S37" s="52">
+        <v>45.716463414634099</v>
+      </c>
+      <c r="T37" s="52">
+        <v>10.975609756097562</v>
+      </c>
+      <c r="U37" s="28">
+        <v>14.011586386843781</v>
+      </c>
+      <c r="V37" s="11">
+        <v>0.12677435144395496</v>
+      </c>
+      <c r="W37" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X37" s="11">
+        <v>0.13598317335491117</v>
+      </c>
       <c r="AC37" s="11">
         <v>8</v>
       </c>
@@ -3550,23 +3871,66 @@
       </c>
     </row>
     <row r="38" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="28"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="28"/>
-      <c r="W38" s="29"/>
+      <c r="C38" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="45">
+        <v>10</v>
+      </c>
+      <c r="E38" s="47">
+        <v>4.5731707317073171</v>
+      </c>
+      <c r="F38" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G38" s="47">
+        <v>31.097560975609756</v>
+      </c>
+      <c r="H38" s="47">
+        <v>25.762195121951223</v>
+      </c>
+      <c r="I38" s="28">
+        <v>6.0693878092867699</v>
+      </c>
+      <c r="J38" s="32">
+        <v>3.9349422875131157E-2</v>
+      </c>
+      <c r="K38" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L38" s="11">
+        <v>4.078404793145754E-2</v>
+      </c>
+      <c r="O38" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" s="50">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="52">
+        <v>2.1951219512195124</v>
+      </c>
+      <c r="R38" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S38" s="52">
+        <v>34.939024390243901</v>
+      </c>
+      <c r="T38" s="52">
+        <v>2.3780487804878048</v>
+      </c>
+      <c r="U38" s="28">
+        <v>22.609147362453538</v>
+      </c>
+      <c r="V38" s="11">
+        <v>3.5242290748898682E-2</v>
+      </c>
+      <c r="W38" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X38" s="11">
+        <v>5.0101679676828589E-2</v>
+      </c>
       <c r="AC38" s="11">
         <v>9</v>
       </c>
@@ -3587,23 +3951,66 @@
       </c>
     </row>
     <row r="39" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="28"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="28"/>
-      <c r="W39" s="29"/>
+      <c r="C39" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="45">
+        <v>11</v>
+      </c>
+      <c r="E39" s="47">
+        <v>7.6219512195121952</v>
+      </c>
+      <c r="F39" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G39" s="47">
+        <v>34.451219512195124</v>
+      </c>
+      <c r="H39" s="47">
+        <v>24.390243902439025</v>
+      </c>
+      <c r="I39" s="28">
+        <v>9.4230463458721374</v>
+      </c>
+      <c r="J39" s="32">
+        <v>6.5582371458551933E-2</v>
+      </c>
+      <c r="K39" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L39" s="11">
+        <v>6.7809702915940143E-2</v>
+      </c>
+      <c r="O39" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" s="50">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="52">
+        <v>2.1036585365853662</v>
+      </c>
+      <c r="R39" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S39" s="52">
+        <v>37.637195121951201</v>
+      </c>
+      <c r="T39" s="52">
+        <v>2.3780487804878048</v>
+      </c>
+      <c r="U39" s="28">
+        <v>22.609147362453538</v>
+      </c>
+      <c r="V39" s="11">
+        <v>3.3773861967694573E-2</v>
+      </c>
+      <c r="W39" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X39" s="11">
+        <v>4.863325089562448E-2</v>
+      </c>
       <c r="AC39" s="11">
         <v>10</v>
       </c>
@@ -3624,26 +4031,68 @@
       </c>
     </row>
     <row r="40" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="12"/>
+      <c r="C40" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="46">
+        <v>12</v>
+      </c>
+      <c r="E40" s="48">
+        <v>4.4207317073170733</v>
+      </c>
+      <c r="F40" s="46">
+        <v>3.2</v>
+      </c>
+      <c r="G40" s="48">
+        <v>37.195121951219512</v>
+      </c>
+      <c r="H40" s="48">
+        <v>14.710365853658537</v>
+      </c>
+      <c r="I40" s="28">
+        <v>12.166948784896526</v>
+      </c>
+      <c r="J40" s="33">
+        <v>3.8037775445960119E-2</v>
+      </c>
+      <c r="K40" s="41">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L40" s="12">
+        <v>4.0913684867853455E-2</v>
+      </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="28"/>
-      <c r="W40" s="29"/>
+      <c r="O40" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="P40" s="51">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="53">
+        <v>1.9817073170731709</v>
+      </c>
+      <c r="R40" s="51">
+        <v>3.2</v>
+      </c>
+      <c r="S40" s="53">
+        <v>41.539634146341498</v>
+      </c>
+      <c r="T40" s="53">
+        <v>2.3780487804878048</v>
+      </c>
+      <c r="U40" s="28">
+        <v>22.609147362453538</v>
+      </c>
+      <c r="V40" s="11">
+        <v>3.1815956926089087E-2</v>
+      </c>
+      <c r="W40" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X40" s="11">
+        <v>4.6675345854018994E-2</v>
+      </c>
       <c r="AC40" s="11">
         <v>11</v>
       </c>
@@ -3664,26 +4113,68 @@
       </c>
     </row>
     <row r="41" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="12"/>
+      <c r="C41" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="46">
+        <v>13</v>
+      </c>
+      <c r="E41" s="48">
+        <v>7.6219512195121952</v>
+      </c>
+      <c r="F41" s="46">
+        <v>3.2</v>
+      </c>
+      <c r="G41" s="48">
+        <v>40.701219512195124</v>
+      </c>
+      <c r="H41" s="48">
+        <v>24.390243902439025</v>
+      </c>
+      <c r="I41" s="28">
+        <v>15.673046345872137</v>
+      </c>
+      <c r="J41" s="33">
+        <v>6.5582371458551933E-2</v>
+      </c>
+      <c r="K41" s="41">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L41" s="12">
+        <v>6.9287019390646271E-2</v>
+      </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="28"/>
-      <c r="W41" s="29"/>
+      <c r="O41" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="51">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="53">
+        <v>3.0792682926829271</v>
+      </c>
+      <c r="R41" s="51">
+        <v>3.2</v>
+      </c>
+      <c r="S41" s="53">
+        <v>46.0518292682927</v>
+      </c>
+      <c r="T41" s="53">
+        <v>2.3780487804878048</v>
+      </c>
+      <c r="U41" s="28">
+        <v>22.609147362453538</v>
+      </c>
+      <c r="V41" s="11">
+        <v>4.9437102300538424E-2</v>
+      </c>
+      <c r="W41" s="29">
+        <v>8.2911080514203412</v>
+      </c>
+      <c r="X41" s="11">
+        <v>6.4296491228468325E-2</v>
+      </c>
       <c r="AC41" s="11">
         <v>12</v>
       </c>
@@ -3704,16 +4195,36 @@
       </c>
     </row>
     <row r="42" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="12"/>
+      <c r="C42" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="46">
+        <v>14</v>
+      </c>
+      <c r="E42" s="48">
+        <v>7.6219512195121952</v>
+      </c>
+      <c r="F42" s="46">
+        <v>3.2</v>
+      </c>
+      <c r="G42" s="48">
+        <v>40.701219512195124</v>
+      </c>
+      <c r="H42" s="48">
+        <v>24.390243902439025</v>
+      </c>
+      <c r="I42" s="28">
+        <v>15.673046345872137</v>
+      </c>
+      <c r="J42" s="33">
+        <v>6.5582371458551933E-2</v>
+      </c>
+      <c r="K42" s="41">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L42" s="12">
+        <v>6.9287019390646271E-2</v>
+      </c>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="14"/>
@@ -3743,15 +4254,36 @@
       </c>
     </row>
     <row r="43" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="28"/>
+      <c r="C43" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="46">
+        <v>15</v>
+      </c>
+      <c r="E43" s="47">
+        <v>2.8963414634146343</v>
+      </c>
+      <c r="F43" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G43" s="47">
+        <v>37.804878048780488</v>
+      </c>
+      <c r="H43" s="47">
+        <v>3.8871951219512195</v>
+      </c>
+      <c r="I43" s="28">
+        <v>12.776704882457501</v>
+      </c>
+      <c r="J43" s="32">
+        <v>2.4921301154249734E-2</v>
+      </c>
+      <c r="K43" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L43" s="11">
+        <v>2.7941339012699767E-2</v>
+      </c>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
@@ -3779,15 +4311,36 @@
       </c>
     </row>
     <row r="44" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="28"/>
+      <c r="C44" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="46">
+        <v>16</v>
+      </c>
+      <c r="E44" s="47">
+        <v>6.8292682926829267</v>
+      </c>
+      <c r="F44" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G44" s="47">
+        <v>41.768292682926834</v>
+      </c>
+      <c r="H44" s="47">
+        <v>5.8536585365853657</v>
+      </c>
+      <c r="I44" s="28">
+        <v>16.740119516603848</v>
+      </c>
+      <c r="J44" s="32">
+        <v>5.8761804826862524E-2</v>
+      </c>
+      <c r="K44" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L44" s="11">
+        <v>6.2718677522931074E-2</v>
+      </c>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
@@ -3815,15 +4368,36 @@
       </c>
     </row>
     <row r="45" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="28"/>
+      <c r="C45" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="46">
+        <v>17</v>
+      </c>
+      <c r="E45" s="47">
+        <v>6.8292682926829267</v>
+      </c>
+      <c r="F45" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G45" s="47">
+        <v>41.768292682926834</v>
+      </c>
+      <c r="H45" s="47">
+        <v>5.8536585365853657</v>
+      </c>
+      <c r="I45" s="28">
+        <v>16.740119516603848</v>
+      </c>
+      <c r="J45" s="32">
+        <v>5.8761804826862524E-2</v>
+      </c>
+      <c r="K45" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L45" s="11">
+        <v>6.2718677522931074E-2</v>
+      </c>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -3851,15 +4425,36 @@
       </c>
     </row>
     <row r="46" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="28"/>
+      <c r="C46" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="46">
+        <v>18</v>
+      </c>
+      <c r="E46" s="47">
+        <v>4.51219512195122</v>
+      </c>
+      <c r="F46" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G46" s="47">
+        <v>44.969512195121951</v>
+      </c>
+      <c r="H46" s="47">
+        <v>4.6951219512195124</v>
+      </c>
+      <c r="I46" s="28">
+        <v>19.941339028798964</v>
+      </c>
+      <c r="J46" s="32">
+        <v>3.8824763903462747E-2</v>
+      </c>
+      <c r="K46" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L46" s="11">
+        <v>4.3538310891453949E-2</v>
+      </c>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -3887,15 +4482,36 @@
       </c>
     </row>
     <row r="47" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="28"/>
+      <c r="C47" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="46">
+        <v>19</v>
+      </c>
+      <c r="E47" s="47">
+        <v>2.8048780487804876</v>
+      </c>
+      <c r="F47" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G47" s="47">
+        <v>44.969512195121951</v>
+      </c>
+      <c r="H47" s="47">
+        <v>9.3292682926829276</v>
+      </c>
+      <c r="I47" s="28">
+        <v>19.941339028798964</v>
+      </c>
+      <c r="J47" s="32">
+        <v>2.4134312696747106E-2</v>
+      </c>
+      <c r="K47" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L47" s="11">
+        <v>2.8847859684738311E-2</v>
+      </c>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -3923,15 +4539,36 @@
       </c>
     </row>
     <row r="48" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="28"/>
+      <c r="C48" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="46">
+        <v>20</v>
+      </c>
+      <c r="E48" s="47">
+        <v>2.8353658536585371</v>
+      </c>
+      <c r="F48" s="45">
+        <v>3.2</v>
+      </c>
+      <c r="G48" s="47">
+        <v>44.207317073170735</v>
+      </c>
+      <c r="H48" s="47">
+        <v>27.637195121951223</v>
+      </c>
+      <c r="I48" s="28">
+        <v>19.179143906847749</v>
+      </c>
+      <c r="J48" s="32">
+        <v>2.4396642182581321E-2</v>
+      </c>
+      <c r="K48" s="28">
+        <v>15.833163282944582</v>
+      </c>
+      <c r="L48" s="11">
+        <v>2.8930028624876654E-2</v>
+      </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>

--- a/shearwall_data_R3.xlsx
+++ b/shearwall_data_R3.xlsx
@@ -598,6 +598,15 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -608,15 +617,6 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,26 +733,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>654845</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137670</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809256</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>110881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="ShearWallPlot"/>
+        <xdr:cNvPr id="31" name="RoofDiaphragmShearWallPlot"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -765,8 +765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13104020" y="142873"/>
-          <a:ext cx="4948236" cy="4090547"/>
+          <a:off x="1219200" y="11544300"/>
+          <a:ext cx="6295656" cy="4997206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2228,14 +2228,14 @@
       <c r="H1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="2:39" x14ac:dyDescent="0.2">
@@ -2248,12 +2248,12 @@
       <c r="H2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="15"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
@@ -2266,19 +2266,19 @@
       <c r="H3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="53">
         <f ca="1">NOW()</f>
-        <v>45669.785043750002</v>
-      </c>
-      <c r="N3" s="44"/>
+        <v>45671.473836921294</v>
+      </c>
+      <c r="N3" s="53"/>
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.2">
@@ -2352,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="38">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>14</v>
@@ -2360,7 +2360,7 @@
       <c r="L10" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="46" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       <c r="L11" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="M11" s="46" t="s">
         <v>12</v>
       </c>
       <c r="AD11" s="13" t="s">
@@ -2427,7 +2427,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="30"/>
       <c r="K12" s="24"/>
-      <c r="M12" s="49"/>
+      <c r="M12" s="46"/>
       <c r="AD12" s="13" t="s">
         <v>21</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="31">
-        <v>25.028173166322986</v>
+        <v>39.742842303846501</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>14</v>
@@ -2485,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="31">
-        <v>10.833163282944582</v>
+        <v>3.8815058545789327</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>14</v>
@@ -2535,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="31">
-        <v>24.987196142941343</v>
+        <v>25.003622845291019</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>14</v>
@@ -2547,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="31">
-        <v>3.2911080514203412</v>
+        <v>2.739669475956692</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>14</v>
@@ -2685,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="31">
-        <v>21.696088091521002</v>
+        <v>22.263953369334327</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>14</v>
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="40">
-        <v>21153.219729859389</v>
+        <v>33687.426913787778</v>
       </c>
       <c r="K19" s="15"/>
       <c r="AD19" s="13" t="s">
@@ -2821,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="40">
-        <v>7607.6975547618522</v>
+        <v>7626.0790318928266</v>
       </c>
       <c r="K20" s="15"/>
       <c r="AD20" s="13" t="s">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="J22" s="39">
         <f>J10*J11</f>
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>85</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="J23" s="39">
         <f>2.39*J22</f>
-        <v>5975</v>
+        <v>9560</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>88</v>
@@ -3151,65 +3151,65 @@
       </c>
     </row>
     <row r="29" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="42">
         <v>1</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="44">
         <v>4.6341463414634143</v>
       </c>
-      <c r="F29" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G29" s="47">
-        <v>2.1036585365853662</v>
-      </c>
-      <c r="H29" s="47">
-        <v>23.658536585365852</v>
+      <c r="F29" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G29" s="44">
+        <v>10.5</v>
+      </c>
+      <c r="H29" s="44">
+        <v>37.9</v>
       </c>
       <c r="I29" s="28">
-        <v>22.924514629737619</v>
+        <v>29.242842303846501</v>
       </c>
       <c r="J29" s="32">
         <v>3.9874081846799567E-2</v>
       </c>
       <c r="K29" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L29" s="11">
-        <v>4.5292763948744055E-2</v>
-      </c>
-      <c r="O29" s="50" t="s">
+        <v>4.68185937868024E-2</v>
+      </c>
+      <c r="O29" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="P29" s="50">
+      <c r="P29" s="47">
         <v>1</v>
       </c>
-      <c r="Q29" s="52">
+      <c r="Q29" s="49">
         <v>5.1524390243902438</v>
       </c>
-      <c r="R29" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S29" s="52">
+      <c r="R29" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S29" s="49">
         <v>12.774390243902401</v>
       </c>
-      <c r="T29" s="52">
+      <c r="T29" s="49">
         <v>18.841463414634145</v>
       </c>
       <c r="U29" s="28">
-        <v>6.1457327283071983</v>
+        <v>6.1621594306568745</v>
       </c>
       <c r="V29" s="11">
         <v>8.272148800783162E-2</v>
       </c>
       <c r="W29" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X29" s="11">
-        <v>8.6760642222407633E-2</v>
+        <v>8.6761676553535297E-2</v>
       </c>
       <c r="AC29" s="11">
         <v>0</v>
@@ -3231,65 +3231,65 @@
       </c>
     </row>
     <row r="30" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="42">
         <v>2</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="44">
         <v>6.7682926829268295</v>
       </c>
-      <c r="F30" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G30" s="47">
+      <c r="F30" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G30" s="44">
         <v>9.7560975609756095</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="44">
         <v>24.115853658536587</v>
       </c>
       <c r="I30" s="28">
-        <v>15.272075605347377</v>
+        <v>29.98674474287089</v>
       </c>
       <c r="J30" s="32">
         <v>5.8237145855194114E-2</v>
       </c>
       <c r="K30" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L30" s="11">
-        <v>6.1847016078352073E-2</v>
-      </c>
-      <c r="O30" s="50" t="s">
+        <v>6.5358317755823361E-2</v>
+      </c>
+      <c r="O30" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="50">
+      <c r="P30" s="47">
         <v>2</v>
       </c>
-      <c r="Q30" s="52">
+      <c r="Q30" s="49">
         <v>5.7926829268292686</v>
       </c>
-      <c r="R30" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S30" s="52">
+      <c r="R30" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S30" s="49">
         <v>25.2134146341463</v>
       </c>
-      <c r="T30" s="52">
+      <c r="T30" s="49">
         <v>18.841463414634145</v>
       </c>
       <c r="U30" s="28">
-        <v>6.1457327283071983</v>
+        <v>6.1621594306568745</v>
       </c>
       <c r="V30" s="11">
         <v>9.3000489476260398E-2</v>
       </c>
       <c r="W30" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X30" s="11">
-        <v>9.7039643690836411E-2</v>
+        <v>9.7040678021964075E-2</v>
       </c>
       <c r="AC30" s="11">
         <v>1</v>
@@ -3311,65 +3311,65 @@
       </c>
     </row>
     <row r="31" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="42">
         <v>3</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="44">
         <v>4.0853658536585371</v>
       </c>
-      <c r="F31" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G31" s="47">
+      <c r="F31" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G31" s="44">
         <v>9.7560975609756095</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="44">
         <v>16.371951219512198</v>
       </c>
       <c r="I31" s="28">
-        <v>15.272075605347377</v>
+        <v>29.98674474287089</v>
       </c>
       <c r="J31" s="32">
         <v>3.5152151101783838E-2</v>
       </c>
       <c r="K31" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L31" s="11">
-        <v>3.8762021324941796E-2</v>
-      </c>
-      <c r="O31" s="50" t="s">
+        <v>4.2273323002413092E-2</v>
+      </c>
+      <c r="O31" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="P31" s="50">
+      <c r="P31" s="47">
         <v>3</v>
       </c>
-      <c r="Q31" s="52">
+      <c r="Q31" s="49">
         <v>3.8414634146341466</v>
       </c>
-      <c r="R31" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S31" s="52">
+      <c r="R31" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S31" s="49">
         <v>31.6768292682927</v>
       </c>
-      <c r="T31" s="52">
+      <c r="T31" s="49">
         <v>18.841463414634145</v>
       </c>
       <c r="U31" s="28">
-        <v>6.1457327283071983</v>
+        <v>6.1621594306568745</v>
       </c>
       <c r="V31" s="11">
         <v>6.1674008810572688E-2</v>
       </c>
       <c r="W31" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X31" s="11">
-        <v>6.5713163025148708E-2</v>
+        <v>6.5714197356276358E-2</v>
       </c>
       <c r="AC31" s="11">
         <v>2</v>
@@ -3391,65 +3391,65 @@
       </c>
     </row>
     <row r="32" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="42">
         <v>4</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="44">
         <v>4.0853658536585371</v>
       </c>
-      <c r="F32" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G32" s="47">
+      <c r="F32" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G32" s="44">
         <v>9.7560975609756095</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="44">
         <v>16.371951219512198</v>
       </c>
       <c r="I32" s="28">
-        <v>15.272075605347377</v>
+        <v>29.98674474287089</v>
       </c>
       <c r="J32" s="32">
         <v>3.5152151101783838E-2</v>
       </c>
       <c r="K32" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L32" s="11">
-        <v>3.8762021324941796E-2</v>
-      </c>
-      <c r="O32" s="50" t="s">
+        <v>4.2273323002413092E-2</v>
+      </c>
+      <c r="O32" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="50">
+      <c r="P32" s="47">
         <v>4</v>
       </c>
-      <c r="Q32" s="52">
+      <c r="Q32" s="49">
         <v>4.5731707317073171</v>
       </c>
-      <c r="R32" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S32" s="52">
+      <c r="R32" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S32" s="49">
         <v>37.652439024390198</v>
       </c>
-      <c r="T32" s="52">
+      <c r="T32" s="49">
         <v>18.841463414634145</v>
       </c>
       <c r="U32" s="28">
-        <v>6.1457327283071983</v>
+        <v>6.1621594306568745</v>
       </c>
       <c r="V32" s="11">
         <v>7.3421439060205582E-2</v>
       </c>
       <c r="W32" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X32" s="11">
-        <v>7.7460593274781595E-2</v>
+        <v>7.7461627605909258E-2</v>
       </c>
       <c r="AC32" s="11">
         <v>3</v>
@@ -3471,65 +3471,65 @@
       </c>
     </row>
     <row r="33" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="42">
         <v>5</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="44">
         <v>7.5914634146341466</v>
       </c>
-      <c r="F33" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G33" s="47">
+      <c r="F33" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G33" s="44">
         <v>12.652439024390244</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="44">
         <v>24.527439024390247</v>
       </c>
       <c r="I33" s="28">
-        <v>12.375734141932742</v>
+        <v>27.090403279456257</v>
       </c>
       <c r="J33" s="32">
         <v>6.5320041972717721E-2</v>
       </c>
       <c r="K33" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L33" s="11">
-        <v>6.8245302122231372E-2</v>
-      </c>
-      <c r="O33" s="50" t="s">
+        <v>7.1753398452875261E-2</v>
+      </c>
+      <c r="O33" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="P33" s="50">
+      <c r="P33" s="47">
         <v>5</v>
       </c>
-      <c r="Q33" s="52">
+      <c r="Q33" s="49">
         <v>6.6768292682926829</v>
       </c>
-      <c r="R33" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S33" s="52">
+      <c r="R33" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S33" s="49">
         <v>18.978658536585399</v>
       </c>
-      <c r="T33" s="52">
+      <c r="T33" s="49">
         <v>20.54878048780488</v>
       </c>
       <c r="U33" s="28">
-        <v>4.4384156551364633</v>
+        <v>4.4548423574861395</v>
       </c>
       <c r="V33" s="11">
         <v>0.10719530102790015</v>
       </c>
       <c r="W33" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X33" s="11">
-        <v>0.11011235682775798</v>
+        <v>0.11011609580255148</v>
       </c>
       <c r="AC33" s="11">
         <v>4</v>
@@ -3551,65 +3551,65 @@
       </c>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="42">
         <v>6</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="44">
         <v>7.6219512195121952</v>
       </c>
-      <c r="F34" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G34" s="47">
+      <c r="F34" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G34" s="44">
         <v>18.902439024390244</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="44">
         <v>24.390243902439025</v>
       </c>
       <c r="I34" s="28">
-        <v>6.1257341419327425</v>
+        <v>20.840403279456257</v>
       </c>
       <c r="J34" s="32">
         <v>6.5582371458551933E-2</v>
       </c>
       <c r="K34" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L34" s="11">
-        <v>6.7030315133359455E-2</v>
-      </c>
-      <c r="O34" s="50" t="s">
+        <v>7.0531494662954719E-2</v>
+      </c>
+      <c r="O34" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="P34" s="50">
+      <c r="P34" s="47">
         <v>6</v>
       </c>
-      <c r="Q34" s="52">
+      <c r="Q34" s="49">
         <v>6.524390243902439</v>
       </c>
-      <c r="R34" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S34" s="52">
+      <c r="R34" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S34" s="49">
         <v>27.408536585365901</v>
       </c>
-      <c r="T34" s="52">
+      <c r="T34" s="49">
         <v>20.54878048780488</v>
       </c>
       <c r="U34" s="28">
-        <v>4.4384156551364633</v>
+        <v>4.4548423574861395</v>
       </c>
       <c r="V34" s="11">
         <v>0.10474791972589328</v>
       </c>
       <c r="W34" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X34" s="11">
-        <v>0.10766497552575112</v>
+        <v>0.10766871450054462</v>
       </c>
       <c r="AC34" s="11">
         <v>5</v>
@@ -3631,65 +3631,65 @@
       </c>
     </row>
     <row r="35" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="42">
         <v>7</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="44">
         <v>7.6219512195121952</v>
       </c>
-      <c r="F35" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G35" s="47">
+      <c r="F35" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G35" s="44">
         <v>18.902439024390244</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="44">
         <v>14.939024390243903</v>
       </c>
       <c r="I35" s="28">
-        <v>6.1257341419327425</v>
+        <v>20.840403279456257</v>
       </c>
       <c r="J35" s="32">
         <v>6.5582371458551933E-2</v>
       </c>
       <c r="K35" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L35" s="11">
-        <v>6.7030315133359455E-2</v>
-      </c>
-      <c r="O35" s="50" t="s">
+        <v>7.0531494662954719E-2</v>
+      </c>
+      <c r="O35" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="P35" s="50">
+      <c r="P35" s="47">
         <v>7</v>
       </c>
-      <c r="Q35" s="52">
+      <c r="Q35" s="49">
         <v>5.8841463414634152</v>
       </c>
-      <c r="R35" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S35" s="52">
+      <c r="R35" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S35" s="49">
         <v>34.954268292682897</v>
       </c>
-      <c r="T35" s="52">
+      <c r="T35" s="49">
         <v>20.54878048780488</v>
       </c>
       <c r="U35" s="28">
-        <v>4.4384156551364633</v>
+        <v>4.4548423574861395</v>
       </c>
       <c r="V35" s="11">
         <v>9.4468918257464521E-2</v>
       </c>
       <c r="W35" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X35" s="11">
-        <v>9.7385974057322355E-2</v>
+        <v>9.7389713032115854E-2</v>
       </c>
       <c r="AC35" s="11">
         <v>6</v>
@@ -3711,65 +3711,65 @@
       </c>
     </row>
     <row r="36" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="42">
         <v>8</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="44">
         <v>7.6219512195121952</v>
       </c>
-      <c r="F36" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G36" s="47">
+      <c r="F36" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G36" s="44">
         <v>25.152439024390244</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="44">
         <v>24.390243902439025</v>
       </c>
       <c r="I36" s="28">
-        <v>0.12426585806725754</v>
+        <v>14.590403279456257</v>
       </c>
       <c r="J36" s="32">
         <v>6.5582371458551933E-2</v>
       </c>
       <c r="K36" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L36" s="11">
-        <v>6.5611744258450538E-2</v>
-      </c>
-      <c r="O36" s="50" t="s">
+        <v>6.9047261387199965E-2</v>
+      </c>
+      <c r="O36" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="P36" s="50">
+      <c r="P36" s="47">
         <v>8</v>
       </c>
-      <c r="Q36" s="52">
+      <c r="Q36" s="49">
         <v>6.5853658536585371</v>
       </c>
-      <c r="R36" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S36" s="52">
+      <c r="R36" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S36" s="49">
         <v>45.975609756097597</v>
       </c>
-      <c r="T36" s="52">
+      <c r="T36" s="49">
         <v>19.969512195121954</v>
       </c>
       <c r="U36" s="28">
-        <v>5.0176839478193891</v>
+        <v>5.0341106501690653</v>
       </c>
       <c r="V36" s="11">
         <v>0.10572687224669604</v>
       </c>
       <c r="W36" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X36" s="11">
-        <v>0.1090246400086904</v>
+        <v>0.10902746133652584</v>
       </c>
       <c r="AC36" s="11">
         <v>7</v>
@@ -3791,65 +3791,65 @@
       </c>
     </row>
     <row r="37" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="42">
         <v>9</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="44">
         <v>7.6219512195121952</v>
       </c>
-      <c r="F37" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G37" s="47">
+      <c r="F37" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G37" s="44">
         <v>25.457317073170735</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="44">
         <v>14.939024390243903</v>
       </c>
       <c r="I37" s="28">
-        <v>0.42914390684774872</v>
+        <v>14.285525230675766</v>
       </c>
       <c r="J37" s="32">
         <v>6.5582371458551933E-2</v>
       </c>
       <c r="K37" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L37" s="11">
-        <v>6.5683808476728889E-2</v>
-      </c>
-      <c r="O37" s="50" t="s">
+        <v>6.8974859763992424E-2</v>
+      </c>
+      <c r="O37" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="P37" s="50">
+      <c r="P37" s="47">
         <v>9</v>
       </c>
-      <c r="Q37" s="52">
+      <c r="Q37" s="49">
         <v>7.8963414634146343</v>
       </c>
-      <c r="R37" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S37" s="52">
+      <c r="R37" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S37" s="49">
         <v>45.716463414634099</v>
       </c>
-      <c r="T37" s="52">
+      <c r="T37" s="49">
         <v>10.975609756097562</v>
       </c>
       <c r="U37" s="28">
-        <v>14.011586386843781</v>
+        <v>14.028013089193458</v>
       </c>
       <c r="V37" s="11">
         <v>0.12677435144395496</v>
       </c>
       <c r="W37" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X37" s="11">
-        <v>0.13598317335491117</v>
+        <v>0.13597174700629261</v>
       </c>
       <c r="AC37" s="11">
         <v>8</v>
@@ -3871,65 +3871,65 @@
       </c>
     </row>
     <row r="38" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="42">
         <v>10</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="44">
         <v>4.5731707317073171</v>
       </c>
-      <c r="F38" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G38" s="47">
+      <c r="F38" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G38" s="44">
         <v>31.097560975609756</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="44">
         <v>25.762195121951223</v>
       </c>
       <c r="I38" s="28">
-        <v>6.0693878092867699</v>
+        <v>8.6452813282367451</v>
       </c>
       <c r="J38" s="32">
         <v>3.9349422875131157E-2</v>
       </c>
       <c r="K38" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L38" s="11">
-        <v>4.078404793145754E-2</v>
-      </c>
-      <c r="O38" s="50" t="s">
+        <v>4.140248115123199E-2</v>
+      </c>
+      <c r="O38" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="P38" s="50">
+      <c r="P38" s="47">
         <v>10</v>
       </c>
-      <c r="Q38" s="52">
+      <c r="Q38" s="49">
         <v>2.1951219512195124</v>
       </c>
-      <c r="R38" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S38" s="52">
+      <c r="R38" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S38" s="49">
         <v>34.939024390243901</v>
       </c>
-      <c r="T38" s="52">
+      <c r="T38" s="49">
         <v>2.3780487804878048</v>
       </c>
       <c r="U38" s="28">
-        <v>22.609147362453538</v>
+        <v>22.625574064803214</v>
       </c>
       <c r="V38" s="11">
         <v>3.5242290748898682E-2</v>
       </c>
       <c r="W38" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X38" s="11">
-        <v>5.0101679676828589E-2</v>
+        <v>5.0076633515464167E-2</v>
       </c>
       <c r="AC38" s="11">
         <v>9</v>
@@ -3951,65 +3951,65 @@
       </c>
     </row>
     <row r="39" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="42">
         <v>11</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="44">
         <v>7.6219512195121952</v>
       </c>
-      <c r="F39" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G39" s="47">
+      <c r="F39" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G39" s="44">
         <v>34.451219512195124</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="44">
         <v>24.390243902439025</v>
       </c>
       <c r="I39" s="28">
-        <v>9.4230463458721374</v>
+        <v>5.2916227916513776</v>
       </c>
       <c r="J39" s="32">
         <v>6.5582371458551933E-2</v>
       </c>
       <c r="K39" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L39" s="11">
-        <v>6.7809702915940143E-2</v>
-      </c>
-      <c r="O39" s="50" t="s">
+        <v>6.6839011879369734E-2</v>
+      </c>
+      <c r="O39" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="P39" s="50">
+      <c r="P39" s="47">
         <v>11</v>
       </c>
-      <c r="Q39" s="52">
+      <c r="Q39" s="49">
         <v>2.1036585365853662</v>
       </c>
-      <c r="R39" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="S39" s="52">
+      <c r="R39" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S39" s="49">
         <v>37.637195121951201</v>
       </c>
-      <c r="T39" s="52">
+      <c r="T39" s="49">
         <v>2.3780487804878048</v>
       </c>
       <c r="U39" s="28">
-        <v>22.609147362453538</v>
+        <v>22.625574064803214</v>
       </c>
       <c r="V39" s="11">
         <v>3.3773861967694573E-2</v>
       </c>
       <c r="W39" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X39" s="11">
-        <v>4.863325089562448E-2</v>
+        <v>4.8608204734260058E-2</v>
       </c>
       <c r="AC39" s="11">
         <v>10</v>
@@ -4031,67 +4031,67 @@
       </c>
     </row>
     <row r="40" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="43">
         <v>12</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="45">
         <v>4.4207317073170733</v>
       </c>
-      <c r="F40" s="46">
-        <v>3.2</v>
-      </c>
-      <c r="G40" s="48">
+      <c r="F40" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="G40" s="45">
         <v>37.195121951219512</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="45">
         <v>14.710365853658537</v>
       </c>
       <c r="I40" s="28">
-        <v>12.166948784896526</v>
+        <v>2.5477203526269889</v>
       </c>
       <c r="J40" s="33">
         <v>3.8037775445960119E-2</v>
       </c>
       <c r="K40" s="41">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L40" s="12">
-        <v>4.0913684867853455E-2</v>
+        <v>3.8642801257909976E-2</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="50" t="s">
+      <c r="O40" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="P40" s="51">
+      <c r="P40" s="48">
         <v>12</v>
       </c>
-      <c r="Q40" s="53">
+      <c r="Q40" s="50">
         <v>1.9817073170731709</v>
       </c>
-      <c r="R40" s="51">
-        <v>3.2</v>
-      </c>
-      <c r="S40" s="53">
+      <c r="R40" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="S40" s="50">
         <v>41.539634146341498</v>
       </c>
-      <c r="T40" s="53">
+      <c r="T40" s="50">
         <v>2.3780487804878048</v>
       </c>
       <c r="U40" s="28">
-        <v>22.609147362453538</v>
+        <v>22.625574064803214</v>
       </c>
       <c r="V40" s="11">
         <v>3.1815956926089087E-2</v>
       </c>
       <c r="W40" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X40" s="11">
-        <v>4.6675345854018994E-2</v>
+        <v>4.6650299692654572E-2</v>
       </c>
       <c r="AC40" s="11">
         <v>11</v>
@@ -4113,67 +4113,67 @@
       </c>
     </row>
     <row r="41" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="43">
         <v>13</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="45">
         <v>7.6219512195121952</v>
       </c>
-      <c r="F41" s="46">
-        <v>3.2</v>
-      </c>
-      <c r="G41" s="48">
+      <c r="F41" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="G41" s="45">
         <v>40.701219512195124</v>
       </c>
-      <c r="H41" s="48">
+      <c r="H41" s="45">
         <v>24.390243902439025</v>
       </c>
       <c r="I41" s="28">
-        <v>15.673046345872137</v>
+        <v>0.95837720834862239</v>
       </c>
       <c r="J41" s="33">
         <v>6.5582371458551933E-2</v>
       </c>
       <c r="K41" s="41">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L41" s="12">
-        <v>6.9287019390646271E-2</v>
+        <v>6.5809964313488886E-2</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="50" t="s">
+      <c r="O41" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="51">
+      <c r="P41" s="48">
         <v>13</v>
       </c>
-      <c r="Q41" s="53">
+      <c r="Q41" s="50">
         <v>3.0792682926829271</v>
       </c>
-      <c r="R41" s="51">
-        <v>3.2</v>
-      </c>
-      <c r="S41" s="53">
+      <c r="R41" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="S41" s="50">
         <v>46.0518292682927</v>
       </c>
-      <c r="T41" s="53">
+      <c r="T41" s="50">
         <v>2.3780487804878048</v>
       </c>
       <c r="U41" s="28">
-        <v>22.609147362453538</v>
+        <v>22.625574064803214</v>
       </c>
       <c r="V41" s="11">
         <v>4.9437102300538424E-2</v>
       </c>
       <c r="W41" s="29">
-        <v>8.2911080514203412</v>
+        <v>7.739669475956692</v>
       </c>
       <c r="X41" s="11">
-        <v>6.4296491228468325E-2</v>
+        <v>6.4271445067103916E-2</v>
       </c>
       <c r="AC41" s="11">
         <v>12</v>
@@ -4195,35 +4195,35 @@
       </c>
     </row>
     <row r="42" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="43">
         <v>14</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="45">
         <v>7.6219512195121952</v>
       </c>
-      <c r="F42" s="46">
-        <v>3.2</v>
-      </c>
-      <c r="G42" s="48">
+      <c r="F42" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="G42" s="45">
         <v>40.701219512195124</v>
       </c>
-      <c r="H42" s="48">
+      <c r="H42" s="45">
         <v>24.390243902439025</v>
       </c>
       <c r="I42" s="28">
-        <v>15.673046345872137</v>
+        <v>0.95837720834862239</v>
       </c>
       <c r="J42" s="33">
         <v>6.5582371458551933E-2</v>
       </c>
       <c r="K42" s="41">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L42" s="12">
-        <v>6.9287019390646271E-2</v>
+        <v>6.5809964313488886E-2</v>
       </c>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -4254,35 +4254,35 @@
       </c>
     </row>
     <row r="43" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="43">
         <v>15</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="44">
         <v>2.8963414634146343</v>
       </c>
-      <c r="F43" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G43" s="47">
+      <c r="F43" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G43" s="44">
         <v>37.804878048780488</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="44">
         <v>3.8871951219512195</v>
       </c>
       <c r="I43" s="28">
-        <v>12.776704882457501</v>
+        <v>1.9379642550660137</v>
       </c>
       <c r="J43" s="32">
         <v>2.4921301154249734E-2</v>
       </c>
       <c r="K43" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L43" s="11">
-        <v>2.7941339012699767E-2</v>
+        <v>2.5381523719784492E-2</v>
       </c>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
@@ -4311,35 +4311,35 @@
       </c>
     </row>
     <row r="44" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="43">
         <v>16</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="44">
         <v>6.8292682926829267</v>
       </c>
-      <c r="F44" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G44" s="47">
+      <c r="F44" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G44" s="44">
         <v>41.768292682926834</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H44" s="44">
         <v>5.8536585365853657</v>
       </c>
       <c r="I44" s="28">
-        <v>16.740119516603848</v>
+        <v>2.0254503790803327</v>
       </c>
       <c r="J44" s="32">
         <v>5.8761804826862524E-2</v>
       </c>
       <c r="K44" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L44" s="11">
-        <v>6.2718677522931074E-2</v>
+        <v>5.9242803363025898E-2</v>
       </c>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
@@ -4368,35 +4368,35 @@
       </c>
     </row>
     <row r="45" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="43">
         <v>17</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="44">
         <v>6.8292682926829267</v>
       </c>
-      <c r="F45" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G45" s="47">
+      <c r="F45" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G45" s="44">
         <v>41.768292682926834</v>
       </c>
-      <c r="H45" s="47">
+      <c r="H45" s="44">
         <v>5.8536585365853657</v>
       </c>
       <c r="I45" s="28">
-        <v>16.740119516603848</v>
+        <v>2.0254503790803327</v>
       </c>
       <c r="J45" s="32">
         <v>5.8761804826862524E-2</v>
       </c>
       <c r="K45" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L45" s="11">
-        <v>6.2718677522931074E-2</v>
+        <v>5.9242803363025898E-2</v>
       </c>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
@@ -4425,35 +4425,35 @@
       </c>
     </row>
     <row r="46" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="43">
         <v>18</v>
       </c>
-      <c r="E46" s="47">
+      <c r="E46" s="44">
         <v>4.51219512195122</v>
       </c>
-      <c r="F46" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G46" s="47">
+      <c r="F46" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G46" s="44">
         <v>44.969512195121951</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="44">
         <v>4.6951219512195124</v>
       </c>
       <c r="I46" s="28">
-        <v>19.941339028798964</v>
+        <v>5.2266698912754492</v>
       </c>
       <c r="J46" s="32">
         <v>3.8824763903462747E-2</v>
       </c>
       <c r="K46" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L46" s="11">
-        <v>4.3538310891453949E-2</v>
+        <v>4.0065979483305383E-2</v>
       </c>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
@@ -4482,35 +4482,35 @@
       </c>
     </row>
     <row r="47" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="43">
         <v>19</v>
       </c>
-      <c r="E47" s="47">
+      <c r="E47" s="44">
         <v>2.8048780487804876</v>
       </c>
-      <c r="F47" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G47" s="47">
+      <c r="F47" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G47" s="44">
         <v>44.969512195121951</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="44">
         <v>9.3292682926829276</v>
       </c>
       <c r="I47" s="28">
-        <v>19.941339028798964</v>
+        <v>5.2266698912754492</v>
       </c>
       <c r="J47" s="32">
         <v>2.4134312696747106E-2</v>
       </c>
       <c r="K47" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L47" s="11">
-        <v>2.8847859684738311E-2</v>
+        <v>2.5375528276589746E-2</v>
       </c>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
@@ -4539,35 +4539,35 @@
       </c>
     </row>
     <row r="48" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="43">
         <v>20</v>
       </c>
-      <c r="E48" s="47">
+      <c r="E48" s="44">
         <v>2.8353658536585371</v>
       </c>
-      <c r="F48" s="45">
-        <v>3.2</v>
-      </c>
-      <c r="G48" s="47">
+      <c r="F48" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G48" s="44">
         <v>44.207317073170735</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="44">
         <v>27.637195121951223</v>
       </c>
       <c r="I48" s="28">
-        <v>19.179143906847749</v>
+        <v>4.4644747693242337</v>
       </c>
       <c r="J48" s="32">
         <v>2.4396642182581321E-2</v>
       </c>
       <c r="K48" s="28">
-        <v>15.833163282944582</v>
+        <v>11.881505854578933</v>
       </c>
       <c r="L48" s="11">
-        <v>2.8930028624876654E-2</v>
+        <v>2.5456853704405088E-2</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>

--- a/shearwall_data_R3.xlsx
+++ b/shearwall_data_R3.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SW_info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>Wall ID</t>
   </si>
@@ -733,26 +733,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1059656</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>809256</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>110881</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>988217</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="RoofDiaphragmShearWallPlot"/>
+        <xdr:cNvPr id="12" name="RoofDiaphragmShearWallPlot"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -765,8 +765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="11544300"/>
-          <a:ext cx="6295656" cy="4997206"/>
+          <a:off x="13508831" y="166688"/>
+          <a:ext cx="5424486" cy="4205287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="M3" s="53">
         <f ca="1">NOW()</f>
-        <v>45671.473836921294</v>
+        <v>45672.382164236114</v>
       </c>
       <c r="N3" s="53"/>
       <c r="O3" s="15"/>
@@ -2352,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="38">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>14</v>
@@ -2378,7 +2378,7 @@
         <v>12</v>
       </c>
       <c r="J11" s="38">
-        <v>50</v>
+        <v>63.5</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>14</v>
@@ -2473,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="31">
-        <v>39.742842303846501</v>
+        <v>114.14462318064564</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>14</v>
@@ -2485,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="31">
-        <v>3.8815058545789327</v>
+        <v>5.3596600050212828E-2</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>14</v>
@@ -2535,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="31">
-        <v>25.003622845291019</v>
+        <v>140.74471203783332</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>14</v>
@@ -2547,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="31">
-        <v>2.739669475956692</v>
+        <v>5.5182541270738739E-2</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>14</v>
@@ -2635,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="31">
-        <v>35.861336449267569</v>
+        <v>114.19821978069585</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>14</v>
@@ -2685,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="31">
-        <v>22.263953369334327</v>
+        <v>140.79989457910406</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>14</v>
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="40">
-        <v>33687.426913787778</v>
+        <v>209949.99213684775</v>
       </c>
       <c r="K19" s="15"/>
       <c r="AD19" s="13" t="s">
@@ -2821,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="40">
-        <v>7626.0790318928266</v>
+        <v>54460.398358184029</v>
       </c>
       <c r="K20" s="15"/>
       <c r="AD20" s="13" t="s">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="J22" s="39">
         <f>J10*J11</f>
-        <v>4000</v>
+        <v>12255.5</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>85</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="J23" s="39">
         <f>2.39*J22</f>
-        <v>9560</v>
+        <v>29290.645</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>88</v>
@@ -3151,65 +3151,41 @@
       </c>
     </row>
     <row r="29" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C29" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="42">
-        <v>1</v>
-      </c>
-      <c r="E29" s="44">
-        <v>4.6341463414634143</v>
-      </c>
-      <c r="F29" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G29" s="44">
-        <v>10.5</v>
-      </c>
-      <c r="H29" s="44">
-        <v>37.9</v>
-      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="28">
-        <v>29.242842303846501</v>
+        <v>78.944623180645635</v>
       </c>
       <c r="J29" s="32">
-        <v>3.9874081846799567E-2</v>
+        <v>0.49999990981271902</v>
       </c>
       <c r="K29" s="28">
-        <v>11.881505854578933</v>
+        <v>19.353596600050214</v>
       </c>
       <c r="L29" s="11">
-        <v>4.68185937868024E-2</v>
-      </c>
-      <c r="O29" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="49">
-        <v>5.1524390243902438</v>
-      </c>
-      <c r="R29" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S29" s="49">
-        <v>12.774390243902401</v>
-      </c>
-      <c r="T29" s="49">
-        <v>18.841463414634145</v>
-      </c>
+        <v>0.50725702476604251</v>
+      </c>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
       <c r="U29" s="28">
-        <v>6.1621594306568745</v>
+        <v>31.491478704499997</v>
       </c>
       <c r="V29" s="11">
-        <v>8.272148800783162E-2</v>
+        <v>0.5000000506155815</v>
       </c>
       <c r="W29" s="29">
-        <v>7.739669475956692</v>
+        <v>6.4051825412707393</v>
       </c>
       <c r="X29" s="11">
-        <v>8.6761676553535297E-2</v>
+        <v>0.50367190935701733</v>
       </c>
       <c r="AC29" s="11">
         <v>0</v>
@@ -3231,65 +3207,41 @@
       </c>
     </row>
     <row r="30" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C30" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="42">
-        <v>2</v>
-      </c>
-      <c r="E30" s="44">
-        <v>6.7682926829268295</v>
-      </c>
-      <c r="F30" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G30" s="44">
-        <v>9.7560975609756095</v>
-      </c>
-      <c r="H30" s="44">
-        <v>24.115853658536587</v>
-      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="28">
-        <v>29.98674474287089</v>
+        <v>24.1719323749099</v>
       </c>
       <c r="J30" s="32">
-        <v>5.8237145855194114E-2</v>
+        <v>0.50000009018728098</v>
       </c>
       <c r="K30" s="28">
-        <v>11.881505854578933</v>
+        <v>19.353596600050214</v>
       </c>
       <c r="L30" s="11">
-        <v>6.5358317755823361E-2</v>
-      </c>
-      <c r="O30" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="47">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="49">
-        <v>5.7926829268292686</v>
-      </c>
-      <c r="R30" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S30" s="49">
-        <v>25.2134146341463</v>
-      </c>
-      <c r="T30" s="49">
-        <v>18.841463414634145</v>
-      </c>
+        <v>0.50222213501846957</v>
+      </c>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
       <c r="U30" s="28">
-        <v>6.1621594306568745</v>
+        <v>0.80173240661110867</v>
       </c>
       <c r="V30" s="11">
-        <v>9.3000489476260398E-2</v>
+        <v>0.49999994938441844</v>
       </c>
       <c r="W30" s="29">
-        <v>7.739669475956692</v>
+        <v>6.4051825412707393</v>
       </c>
       <c r="X30" s="11">
-        <v>9.7040678021964075E-2</v>
+        <v>0.50009343016927232</v>
       </c>
       <c r="AC30" s="11">
         <v>1</v>
@@ -3311,66 +3263,23 @@
       </c>
     </row>
     <row r="31" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C31" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="42">
-        <v>3</v>
-      </c>
-      <c r="E31" s="44">
-        <v>4.0853658536585371</v>
-      </c>
-      <c r="F31" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G31" s="44">
-        <v>9.7560975609756095</v>
-      </c>
-      <c r="H31" s="44">
-        <v>16.371951219512198</v>
-      </c>
-      <c r="I31" s="28">
-        <v>29.98674474287089</v>
-      </c>
-      <c r="J31" s="32">
-        <v>3.5152151101783838E-2</v>
-      </c>
-      <c r="K31" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L31" s="11">
-        <v>4.2273323002413092E-2</v>
-      </c>
-      <c r="O31" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="P31" s="47">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="49">
-        <v>3.8414634146341466</v>
-      </c>
-      <c r="R31" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S31" s="49">
-        <v>31.6768292682927</v>
-      </c>
-      <c r="T31" s="49">
-        <v>18.841463414634145</v>
-      </c>
-      <c r="U31" s="28">
-        <v>6.1621594306568745</v>
-      </c>
-      <c r="V31" s="11">
-        <v>6.1674008810572688E-2</v>
-      </c>
-      <c r="W31" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X31" s="11">
-        <v>6.5714197356276358E-2</v>
-      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="28"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="28"/>
+      <c r="W31" s="29"/>
       <c r="AC31" s="11">
         <v>2</v>
       </c>
@@ -3391,66 +3300,23 @@
       </c>
     </row>
     <row r="32" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C32" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="42">
-        <v>4</v>
-      </c>
-      <c r="E32" s="44">
-        <v>4.0853658536585371</v>
-      </c>
-      <c r="F32" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G32" s="44">
-        <v>9.7560975609756095</v>
-      </c>
-      <c r="H32" s="44">
-        <v>16.371951219512198</v>
-      </c>
-      <c r="I32" s="28">
-        <v>29.98674474287089</v>
-      </c>
-      <c r="J32" s="32">
-        <v>3.5152151101783838E-2</v>
-      </c>
-      <c r="K32" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L32" s="11">
-        <v>4.2273323002413092E-2</v>
-      </c>
-      <c r="O32" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="P32" s="47">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="49">
-        <v>4.5731707317073171</v>
-      </c>
-      <c r="R32" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S32" s="49">
-        <v>37.652439024390198</v>
-      </c>
-      <c r="T32" s="49">
-        <v>18.841463414634145</v>
-      </c>
-      <c r="U32" s="28">
-        <v>6.1621594306568745</v>
-      </c>
-      <c r="V32" s="11">
-        <v>7.3421439060205582E-2</v>
-      </c>
-      <c r="W32" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X32" s="11">
-        <v>7.7461627605909258E-2</v>
-      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="28"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="28"/>
+      <c r="W32" s="29"/>
       <c r="AC32" s="11">
         <v>3</v>
       </c>
@@ -3471,66 +3337,23 @@
       </c>
     </row>
     <row r="33" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C33" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="42">
-        <v>5</v>
-      </c>
-      <c r="E33" s="44">
-        <v>7.5914634146341466</v>
-      </c>
-      <c r="F33" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G33" s="44">
-        <v>12.652439024390244</v>
-      </c>
-      <c r="H33" s="44">
-        <v>24.527439024390247</v>
-      </c>
-      <c r="I33" s="28">
-        <v>27.090403279456257</v>
-      </c>
-      <c r="J33" s="32">
-        <v>6.5320041972717721E-2</v>
-      </c>
-      <c r="K33" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L33" s="11">
-        <v>7.1753398452875261E-2</v>
-      </c>
-      <c r="O33" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="P33" s="47">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="49">
-        <v>6.6768292682926829</v>
-      </c>
-      <c r="R33" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S33" s="49">
-        <v>18.978658536585399</v>
-      </c>
-      <c r="T33" s="49">
-        <v>20.54878048780488</v>
-      </c>
-      <c r="U33" s="28">
-        <v>4.4548423574861395</v>
-      </c>
-      <c r="V33" s="11">
-        <v>0.10719530102790015</v>
-      </c>
-      <c r="W33" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X33" s="11">
-        <v>0.11011609580255148</v>
-      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="28"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="28"/>
+      <c r="W33" s="29"/>
       <c r="AC33" s="11">
         <v>4</v>
       </c>
@@ -3551,66 +3374,23 @@
       </c>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C34" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="42">
-        <v>6</v>
-      </c>
-      <c r="E34" s="44">
-        <v>7.6219512195121952</v>
-      </c>
-      <c r="F34" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G34" s="44">
-        <v>18.902439024390244</v>
-      </c>
-      <c r="H34" s="44">
-        <v>24.390243902439025</v>
-      </c>
-      <c r="I34" s="28">
-        <v>20.840403279456257</v>
-      </c>
-      <c r="J34" s="32">
-        <v>6.5582371458551933E-2</v>
-      </c>
-      <c r="K34" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L34" s="11">
-        <v>7.0531494662954719E-2</v>
-      </c>
-      <c r="O34" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="P34" s="47">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="49">
-        <v>6.524390243902439</v>
-      </c>
-      <c r="R34" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S34" s="49">
-        <v>27.408536585365901</v>
-      </c>
-      <c r="T34" s="49">
-        <v>20.54878048780488</v>
-      </c>
-      <c r="U34" s="28">
-        <v>4.4548423574861395</v>
-      </c>
-      <c r="V34" s="11">
-        <v>0.10474791972589328</v>
-      </c>
-      <c r="W34" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X34" s="11">
-        <v>0.10766871450054462</v>
-      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="28"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="28"/>
+      <c r="W34" s="29"/>
       <c r="AC34" s="11">
         <v>5</v>
       </c>
@@ -3631,66 +3411,23 @@
       </c>
     </row>
     <row r="35" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C35" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="42">
-        <v>7</v>
-      </c>
-      <c r="E35" s="44">
-        <v>7.6219512195121952</v>
-      </c>
-      <c r="F35" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G35" s="44">
-        <v>18.902439024390244</v>
-      </c>
-      <c r="H35" s="44">
-        <v>14.939024390243903</v>
-      </c>
-      <c r="I35" s="28">
-        <v>20.840403279456257</v>
-      </c>
-      <c r="J35" s="32">
-        <v>6.5582371458551933E-2</v>
-      </c>
-      <c r="K35" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L35" s="11">
-        <v>7.0531494662954719E-2</v>
-      </c>
-      <c r="O35" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="P35" s="47">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="49">
-        <v>5.8841463414634152</v>
-      </c>
-      <c r="R35" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S35" s="49">
-        <v>34.954268292682897</v>
-      </c>
-      <c r="T35" s="49">
-        <v>20.54878048780488</v>
-      </c>
-      <c r="U35" s="28">
-        <v>4.4548423574861395</v>
-      </c>
-      <c r="V35" s="11">
-        <v>9.4468918257464521E-2</v>
-      </c>
-      <c r="W35" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X35" s="11">
-        <v>9.7389713032115854E-2</v>
-      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="28"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="28"/>
+      <c r="W35" s="29"/>
       <c r="AC35" s="11">
         <v>6</v>
       </c>
@@ -3711,66 +3448,23 @@
       </c>
     </row>
     <row r="36" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C36" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="42">
-        <v>8</v>
-      </c>
-      <c r="E36" s="44">
-        <v>7.6219512195121952</v>
-      </c>
-      <c r="F36" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G36" s="44">
-        <v>25.152439024390244</v>
-      </c>
-      <c r="H36" s="44">
-        <v>24.390243902439025</v>
-      </c>
-      <c r="I36" s="28">
-        <v>14.590403279456257</v>
-      </c>
-      <c r="J36" s="32">
-        <v>6.5582371458551933E-2</v>
-      </c>
-      <c r="K36" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L36" s="11">
-        <v>6.9047261387199965E-2</v>
-      </c>
-      <c r="O36" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="P36" s="47">
-        <v>8</v>
-      </c>
-      <c r="Q36" s="49">
-        <v>6.5853658536585371</v>
-      </c>
-      <c r="R36" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S36" s="49">
-        <v>45.975609756097597</v>
-      </c>
-      <c r="T36" s="49">
-        <v>19.969512195121954</v>
-      </c>
-      <c r="U36" s="28">
-        <v>5.0341106501690653</v>
-      </c>
-      <c r="V36" s="11">
-        <v>0.10572687224669604</v>
-      </c>
-      <c r="W36" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X36" s="11">
-        <v>0.10902746133652584</v>
-      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="28"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="28"/>
+      <c r="W36" s="29"/>
       <c r="AC36" s="11">
         <v>7</v>
       </c>
@@ -3791,66 +3485,23 @@
       </c>
     </row>
     <row r="37" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C37" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="42">
-        <v>9</v>
-      </c>
-      <c r="E37" s="44">
-        <v>7.6219512195121952</v>
-      </c>
-      <c r="F37" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G37" s="44">
-        <v>25.457317073170735</v>
-      </c>
-      <c r="H37" s="44">
-        <v>14.939024390243903</v>
-      </c>
-      <c r="I37" s="28">
-        <v>14.285525230675766</v>
-      </c>
-      <c r="J37" s="32">
-        <v>6.5582371458551933E-2</v>
-      </c>
-      <c r="K37" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L37" s="11">
-        <v>6.8974859763992424E-2</v>
-      </c>
-      <c r="O37" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="P37" s="47">
-        <v>9</v>
-      </c>
-      <c r="Q37" s="49">
-        <v>7.8963414634146343</v>
-      </c>
-      <c r="R37" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S37" s="49">
-        <v>45.716463414634099</v>
-      </c>
-      <c r="T37" s="49">
-        <v>10.975609756097562</v>
-      </c>
-      <c r="U37" s="28">
-        <v>14.028013089193458</v>
-      </c>
-      <c r="V37" s="11">
-        <v>0.12677435144395496</v>
-      </c>
-      <c r="W37" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X37" s="11">
-        <v>0.13597174700629261</v>
-      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="28"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="28"/>
+      <c r="W37" s="29"/>
       <c r="AC37" s="11">
         <v>8</v>
       </c>
@@ -3871,66 +3522,23 @@
       </c>
     </row>
     <row r="38" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C38" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="42">
-        <v>10</v>
-      </c>
-      <c r="E38" s="44">
-        <v>4.5731707317073171</v>
-      </c>
-      <c r="F38" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G38" s="44">
-        <v>31.097560975609756</v>
-      </c>
-      <c r="H38" s="44">
-        <v>25.762195121951223</v>
-      </c>
-      <c r="I38" s="28">
-        <v>8.6452813282367451</v>
-      </c>
-      <c r="J38" s="32">
-        <v>3.9349422875131157E-2</v>
-      </c>
-      <c r="K38" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L38" s="11">
-        <v>4.140248115123199E-2</v>
-      </c>
-      <c r="O38" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="P38" s="47">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="49">
-        <v>2.1951219512195124</v>
-      </c>
-      <c r="R38" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S38" s="49">
-        <v>34.939024390243901</v>
-      </c>
-      <c r="T38" s="49">
-        <v>2.3780487804878048</v>
-      </c>
-      <c r="U38" s="28">
-        <v>22.625574064803214</v>
-      </c>
-      <c r="V38" s="11">
-        <v>3.5242290748898682E-2</v>
-      </c>
-      <c r="W38" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X38" s="11">
-        <v>5.0076633515464167E-2</v>
-      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="28"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="28"/>
+      <c r="W38" s="29"/>
       <c r="AC38" s="11">
         <v>9</v>
       </c>
@@ -3951,66 +3559,23 @@
       </c>
     </row>
     <row r="39" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C39" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="42">
-        <v>11</v>
-      </c>
-      <c r="E39" s="44">
-        <v>7.6219512195121952</v>
-      </c>
-      <c r="F39" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G39" s="44">
-        <v>34.451219512195124</v>
-      </c>
-      <c r="H39" s="44">
-        <v>24.390243902439025</v>
-      </c>
-      <c r="I39" s="28">
-        <v>5.2916227916513776</v>
-      </c>
-      <c r="J39" s="32">
-        <v>6.5582371458551933E-2</v>
-      </c>
-      <c r="K39" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L39" s="11">
-        <v>6.6839011879369734E-2</v>
-      </c>
-      <c r="O39" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="P39" s="47">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="49">
-        <v>2.1036585365853662</v>
-      </c>
-      <c r="R39" s="47">
-        <v>3.2</v>
-      </c>
-      <c r="S39" s="49">
-        <v>37.637195121951201</v>
-      </c>
-      <c r="T39" s="49">
-        <v>2.3780487804878048</v>
-      </c>
-      <c r="U39" s="28">
-        <v>22.625574064803214</v>
-      </c>
-      <c r="V39" s="11">
-        <v>3.3773861967694573E-2</v>
-      </c>
-      <c r="W39" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X39" s="11">
-        <v>4.8608204734260058E-2</v>
-      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="28"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="28"/>
+      <c r="W39" s="29"/>
       <c r="AC39" s="11">
         <v>10</v>
       </c>
@@ -4031,68 +3596,26 @@
       </c>
     </row>
     <row r="40" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C40" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="43">
-        <v>12</v>
-      </c>
-      <c r="E40" s="45">
-        <v>4.4207317073170733</v>
-      </c>
-      <c r="F40" s="43">
-        <v>3.2</v>
-      </c>
-      <c r="G40" s="45">
-        <v>37.195121951219512</v>
-      </c>
-      <c r="H40" s="45">
-        <v>14.710365853658537</v>
-      </c>
-      <c r="I40" s="28">
-        <v>2.5477203526269889</v>
-      </c>
-      <c r="J40" s="33">
-        <v>3.8037775445960119E-2</v>
-      </c>
-      <c r="K40" s="41">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L40" s="12">
-        <v>3.8642801257909976E-2</v>
-      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="P40" s="48">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="50">
-        <v>1.9817073170731709</v>
-      </c>
-      <c r="R40" s="48">
-        <v>3.2</v>
-      </c>
-      <c r="S40" s="50">
-        <v>41.539634146341498</v>
-      </c>
-      <c r="T40" s="50">
-        <v>2.3780487804878048</v>
-      </c>
-      <c r="U40" s="28">
-        <v>22.625574064803214</v>
-      </c>
-      <c r="V40" s="11">
-        <v>3.1815956926089087E-2</v>
-      </c>
-      <c r="W40" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X40" s="11">
-        <v>4.6650299692654572E-2</v>
-      </c>
+      <c r="O40" s="47"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="28"/>
+      <c r="W40" s="29"/>
       <c r="AC40" s="11">
         <v>11</v>
       </c>
@@ -4113,68 +3636,26 @@
       </c>
     </row>
     <row r="41" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C41" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="43">
-        <v>13</v>
-      </c>
-      <c r="E41" s="45">
-        <v>7.6219512195121952</v>
-      </c>
-      <c r="F41" s="43">
-        <v>3.2</v>
-      </c>
-      <c r="G41" s="45">
-        <v>40.701219512195124</v>
-      </c>
-      <c r="H41" s="45">
-        <v>24.390243902439025</v>
-      </c>
-      <c r="I41" s="28">
-        <v>0.95837720834862239</v>
-      </c>
-      <c r="J41" s="33">
-        <v>6.5582371458551933E-2</v>
-      </c>
-      <c r="K41" s="41">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L41" s="12">
-        <v>6.5809964313488886E-2</v>
-      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P41" s="48">
-        <v>13</v>
-      </c>
-      <c r="Q41" s="50">
-        <v>3.0792682926829271</v>
-      </c>
-      <c r="R41" s="48">
-        <v>3.2</v>
-      </c>
-      <c r="S41" s="50">
-        <v>46.0518292682927</v>
-      </c>
-      <c r="T41" s="50">
-        <v>2.3780487804878048</v>
-      </c>
-      <c r="U41" s="28">
-        <v>22.625574064803214</v>
-      </c>
-      <c r="V41" s="11">
-        <v>4.9437102300538424E-2</v>
-      </c>
-      <c r="W41" s="29">
-        <v>7.739669475956692</v>
-      </c>
-      <c r="X41" s="11">
-        <v>6.4271445067103916E-2</v>
-      </c>
+      <c r="O41" s="47"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="28"/>
+      <c r="W41" s="29"/>
       <c r="AC41" s="11">
         <v>12</v>
       </c>
@@ -4195,36 +3676,16 @@
       </c>
     </row>
     <row r="42" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C42" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="43">
-        <v>14</v>
-      </c>
-      <c r="E42" s="45">
-        <v>7.6219512195121952</v>
-      </c>
-      <c r="F42" s="43">
-        <v>3.2</v>
-      </c>
-      <c r="G42" s="45">
-        <v>40.701219512195124</v>
-      </c>
-      <c r="H42" s="45">
-        <v>24.390243902439025</v>
-      </c>
-      <c r="I42" s="28">
-        <v>0.95837720834862239</v>
-      </c>
-      <c r="J42" s="33">
-        <v>6.5582371458551933E-2</v>
-      </c>
-      <c r="K42" s="41">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L42" s="12">
-        <v>6.5809964313488886E-2</v>
-      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="14"/>
@@ -4254,36 +3715,15 @@
       </c>
     </row>
     <row r="43" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C43" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="43">
-        <v>15</v>
-      </c>
-      <c r="E43" s="44">
-        <v>2.8963414634146343</v>
-      </c>
-      <c r="F43" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G43" s="44">
-        <v>37.804878048780488</v>
-      </c>
-      <c r="H43" s="44">
-        <v>3.8871951219512195</v>
-      </c>
-      <c r="I43" s="28">
-        <v>1.9379642550660137</v>
-      </c>
-      <c r="J43" s="32">
-        <v>2.4921301154249734E-2</v>
-      </c>
-      <c r="K43" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L43" s="11">
-        <v>2.5381523719784492E-2</v>
-      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="28"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
@@ -4311,36 +3751,15 @@
       </c>
     </row>
     <row r="44" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C44" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="43">
-        <v>16</v>
-      </c>
-      <c r="E44" s="44">
-        <v>6.8292682926829267</v>
-      </c>
-      <c r="F44" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G44" s="44">
-        <v>41.768292682926834</v>
-      </c>
-      <c r="H44" s="44">
-        <v>5.8536585365853657</v>
-      </c>
-      <c r="I44" s="28">
-        <v>2.0254503790803327</v>
-      </c>
-      <c r="J44" s="32">
-        <v>5.8761804826862524E-2</v>
-      </c>
-      <c r="K44" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L44" s="11">
-        <v>5.9242803363025898E-2</v>
-      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="28"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
@@ -4368,36 +3787,15 @@
       </c>
     </row>
     <row r="45" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C45" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="43">
-        <v>17</v>
-      </c>
-      <c r="E45" s="44">
-        <v>6.8292682926829267</v>
-      </c>
-      <c r="F45" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G45" s="44">
-        <v>41.768292682926834</v>
-      </c>
-      <c r="H45" s="44">
-        <v>5.8536585365853657</v>
-      </c>
-      <c r="I45" s="28">
-        <v>2.0254503790803327</v>
-      </c>
-      <c r="J45" s="32">
-        <v>5.8761804826862524E-2</v>
-      </c>
-      <c r="K45" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L45" s="11">
-        <v>5.9242803363025898E-2</v>
-      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="28"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -4425,36 +3823,15 @@
       </c>
     </row>
     <row r="46" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C46" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="43">
-        <v>18</v>
-      </c>
-      <c r="E46" s="44">
-        <v>4.51219512195122</v>
-      </c>
-      <c r="F46" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G46" s="44">
-        <v>44.969512195121951</v>
-      </c>
-      <c r="H46" s="44">
-        <v>4.6951219512195124</v>
-      </c>
-      <c r="I46" s="28">
-        <v>5.2266698912754492</v>
-      </c>
-      <c r="J46" s="32">
-        <v>3.8824763903462747E-2</v>
-      </c>
-      <c r="K46" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L46" s="11">
-        <v>4.0065979483305383E-2</v>
-      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="28"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -4482,36 +3859,15 @@
       </c>
     </row>
     <row r="47" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C47" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="43">
-        <v>19</v>
-      </c>
-      <c r="E47" s="44">
-        <v>2.8048780487804876</v>
-      </c>
-      <c r="F47" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G47" s="44">
-        <v>44.969512195121951</v>
-      </c>
-      <c r="H47" s="44">
-        <v>9.3292682926829276</v>
-      </c>
-      <c r="I47" s="28">
-        <v>5.2266698912754492</v>
-      </c>
-      <c r="J47" s="32">
-        <v>2.4134312696747106E-2</v>
-      </c>
-      <c r="K47" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L47" s="11">
-        <v>2.5375528276589746E-2</v>
-      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="28"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -4539,36 +3895,15 @@
       </c>
     </row>
     <row r="48" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C48" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="43">
-        <v>20</v>
-      </c>
-      <c r="E48" s="44">
-        <v>2.8353658536585371</v>
-      </c>
-      <c r="F48" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="G48" s="44">
-        <v>44.207317073170735</v>
-      </c>
-      <c r="H48" s="44">
-        <v>27.637195121951223</v>
-      </c>
-      <c r="I48" s="28">
-        <v>4.4644747693242337</v>
-      </c>
-      <c r="J48" s="32">
-        <v>2.4396642182581321E-2</v>
-      </c>
-      <c r="K48" s="28">
-        <v>11.881505854578933</v>
-      </c>
-      <c r="L48" s="11">
-        <v>2.5456853704405088E-2</v>
-      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="28"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>

--- a/shearwall_data_R3.xlsx
+++ b/shearwall_data_R3.xlsx
@@ -734,25 +734,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1059656</xdr:colOff>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>988217</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="RoofDiaphragmShearWallPlot"/>
+        <xdr:cNvPr id="15" name="RoofDiaphragmShearWallPlot"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -765,8 +765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13508831" y="166688"/>
-          <a:ext cx="5424486" cy="4205287"/>
+          <a:off x="12925424" y="154781"/>
+          <a:ext cx="6538914" cy="4445794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AM61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="M3" s="53">
         <f ca="1">NOW()</f>
-        <v>45672.382164236114</v>
+        <v>45673.343556828702</v>
       </c>
       <c r="N3" s="53"/>
       <c r="O3" s="15"/>
@@ -2473,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="31">
-        <v>114.14462318064564</v>
+        <v>30.162082489374423</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>14</v>
@@ -2485,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="31">
-        <v>5.3596600050212828E-2</v>
+        <v>2.9752973491621155</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>14</v>
@@ -2535,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="31">
-        <v>140.74471203783332</v>
+        <v>34.967679396261424</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>14</v>
@@ -2547,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="31">
-        <v>5.5182541270738739E-2</v>
+        <v>1.7941996460748229</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>14</v>
@@ -2635,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="31">
-        <v>114.19821978069585</v>
+        <v>33.137379838536539</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>14</v>
@@ -2685,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="31">
-        <v>140.79989457910406</v>
+        <v>33.173479750186601</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>14</v>
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="40">
-        <v>209949.99213684775</v>
+        <v>10364.504173234796</v>
       </c>
       <c r="K19" s="15"/>
       <c r="AD19" s="13" t="s">
@@ -2821,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="40">
-        <v>54460.398358184029</v>
+        <v>321.89436037636045</v>
       </c>
       <c r="K20" s="15"/>
       <c r="AD20" s="13" t="s">
@@ -3153,39 +3153,55 @@
     <row r="29" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="E29" s="44">
+        <v>7.8232304284419953</v>
+      </c>
+      <c r="F29" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G29" s="44">
+        <v>7.0374645569799998</v>
+      </c>
+      <c r="H29" s="44">
+        <v>27.709645218138</v>
+      </c>
       <c r="I29" s="28">
-        <v>78.944623180645635</v>
+        <v>23.124617932394422</v>
       </c>
       <c r="J29" s="32">
-        <v>0.49999990981271902</v>
+        <v>0.14424137584912528</v>
       </c>
       <c r="K29" s="28">
-        <v>19.353596600050214</v>
+        <v>22.275297349162116</v>
       </c>
       <c r="L29" s="11">
-        <v>0.50725702476604251</v>
+        <v>0.18730229980994018</v>
       </c>
       <c r="O29" s="47"/>
       <c r="P29" s="47"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
+      <c r="Q29" s="49">
+        <v>6.5526632618200011</v>
+      </c>
+      <c r="R29" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S29" s="49">
+        <v>41.811755152179998</v>
+      </c>
+      <c r="T29" s="49">
+        <v>28.34636954578</v>
+      </c>
       <c r="U29" s="28">
-        <v>31.491478704499997</v>
+        <v>6.6213098504814241</v>
       </c>
       <c r="V29" s="11">
-        <v>0.5000000506155815</v>
+        <v>0.17662088981461427</v>
       </c>
       <c r="W29" s="29">
-        <v>6.4051825412707393</v>
+        <v>8.1441996460748243</v>
       </c>
       <c r="X29" s="11">
-        <v>0.50367190935701733</v>
+        <v>0.30723926256708328</v>
       </c>
       <c r="AC29" s="11">
         <v>0</v>
@@ -3209,39 +3225,55 @@
     <row r="30" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="E30" s="44">
+        <v>7.8232276062200015</v>
+      </c>
+      <c r="F30" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G30" s="44">
+        <v>48.259967977780001</v>
+      </c>
+      <c r="H30" s="44">
+        <v>35.668342302579994</v>
+      </c>
       <c r="I30" s="28">
-        <v>24.1719323749099</v>
+        <v>18.097885488405577</v>
       </c>
       <c r="J30" s="32">
-        <v>0.50000009018728098</v>
+        <v>0.14424132381420349</v>
       </c>
       <c r="K30" s="28">
-        <v>19.353596600050214</v>
+        <v>22.275297349162116</v>
       </c>
       <c r="L30" s="11">
-        <v>0.50222213501846957</v>
+        <v>0.17794184475453259</v>
       </c>
       <c r="O30" s="47"/>
       <c r="P30" s="47"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
+      <c r="Q30" s="49">
+        <v>5.364423133159999</v>
+      </c>
+      <c r="R30" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S30" s="49">
+        <v>20.184588188439999</v>
+      </c>
+      <c r="T30" s="49">
+        <v>36.344970027080002</v>
+      </c>
       <c r="U30" s="28">
-        <v>0.80173240661110867</v>
+        <v>1.3772906308185782</v>
       </c>
       <c r="V30" s="11">
-        <v>0.49999994938441844</v>
+        <v>0.14459299208024015</v>
       </c>
       <c r="W30" s="29">
-        <v>6.4051825412707393</v>
+        <v>8.1441996460748243</v>
       </c>
       <c r="X30" s="11">
-        <v>0.50009343016927232</v>
+        <v>0.17176276136564281</v>
       </c>
       <c r="AC30" s="11">
         <v>1</v>
@@ -3265,21 +3297,56 @@
     <row r="31" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="28"/>
+      <c r="E31" s="44">
+        <v>5.6441335555800052</v>
+      </c>
+      <c r="F31" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G31" s="44">
+        <v>15.40933212</v>
+      </c>
+      <c r="H31" s="44">
+        <v>36.323408250999996</v>
+      </c>
+      <c r="I31" s="28">
+        <v>14.752750369374423</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0.10406411992842293</v>
+      </c>
+      <c r="K31" s="28">
+        <v>22.275297349162116</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.13153558188838871</v>
+      </c>
       <c r="O31" s="47"/>
       <c r="P31" s="47"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="28"/>
-      <c r="W31" s="29"/>
+      <c r="Q31" s="49">
+        <v>5.3644203109380015</v>
+      </c>
+      <c r="R31" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S31" s="49">
+        <v>27.059439136001998</v>
+      </c>
+      <c r="T31" s="49">
+        <v>36.338930471999994</v>
+      </c>
+      <c r="U31" s="28">
+        <v>1.3712510757385701</v>
+      </c>
+      <c r="V31" s="11">
+        <v>0.14459291600989432</v>
+      </c>
+      <c r="W31" s="29">
+        <v>8.1441996460748243</v>
+      </c>
+      <c r="X31" s="11">
+        <v>0.1716435431807436</v>
+      </c>
       <c r="AC31" s="11">
         <v>2</v>
       </c>
@@ -3302,21 +3369,56 @@
     <row r="32" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="28"/>
+      <c r="E32" s="44">
+        <v>6.1467712937799988</v>
+      </c>
+      <c r="F32" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G32" s="44">
+        <v>35.935888948180001</v>
+      </c>
+      <c r="H32" s="44">
+        <v>36.613250450399995</v>
+      </c>
+      <c r="I32" s="28">
+        <v>5.7738064588055771</v>
+      </c>
+      <c r="J32" s="32">
+        <v>0.11333153951612619</v>
+      </c>
+      <c r="K32" s="28">
+        <v>22.275297349162116</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.12408308756824768</v>
+      </c>
       <c r="O32" s="47"/>
       <c r="P32" s="47"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="28"/>
-      <c r="W32" s="29"/>
+      <c r="Q32" s="49">
+        <v>5.4998897891600009</v>
+      </c>
+      <c r="R32" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S32" s="49">
+        <v>33.8937573312</v>
+      </c>
+      <c r="T32" s="49">
+        <v>36.338930471999994</v>
+      </c>
+      <c r="U32" s="28">
+        <v>1.3712510757385701</v>
+      </c>
+      <c r="V32" s="11">
+        <v>0.14824436868345126</v>
+      </c>
+      <c r="W32" s="29">
+        <v>8.1441996460748243</v>
+      </c>
+      <c r="X32" s="11">
+        <v>0.17529499585430053</v>
+      </c>
       <c r="AC32" s="11">
         <v>3</v>
       </c>
@@ -3339,21 +3441,56 @@
     <row r="33" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="28"/>
+      <c r="E33" s="44">
+        <v>6.2178912881799988</v>
+      </c>
+      <c r="F33" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G33" s="44">
+        <v>23.232503281779998</v>
+      </c>
+      <c r="H33" s="44">
+        <v>28.536051086400001</v>
+      </c>
+      <c r="I33" s="28">
+        <v>6.9295792075944256</v>
+      </c>
+      <c r="J33" s="32">
+        <v>0.11464281954762605</v>
+      </c>
+      <c r="K33" s="28">
+        <v>22.275297349162116</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.12754656066936187</v>
+      </c>
       <c r="O33" s="47"/>
       <c r="P33" s="47"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="28"/>
-      <c r="W33" s="29"/>
+      <c r="Q33" s="49">
+        <v>5.3644231331600025</v>
+      </c>
+      <c r="R33" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S33" s="49">
+        <v>42.780313520359996</v>
+      </c>
+      <c r="T33" s="49">
+        <v>35.824185401420003</v>
+      </c>
+      <c r="U33" s="28">
+        <v>0.85650600515857889</v>
+      </c>
+      <c r="V33" s="11">
+        <v>0.14459299208024023</v>
+      </c>
+      <c r="W33" s="29">
+        <v>8.1441996460748243</v>
+      </c>
+      <c r="X33" s="11">
+        <v>0.16148925931026531</v>
+      </c>
       <c r="AC33" s="11">
         <v>4</v>
       </c>
@@ -3376,21 +3513,56 @@
     <row r="34" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="28"/>
+      <c r="E34" s="44">
+        <v>6.2178912881800024</v>
+      </c>
+      <c r="F34" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G34" s="44">
+        <v>28.332851102399999</v>
+      </c>
+      <c r="H34" s="44">
+        <v>28.488637756799999</v>
+      </c>
+      <c r="I34" s="28">
+        <v>1.8292313869744241</v>
+      </c>
+      <c r="J34" s="32">
+        <v>0.11464281954762612</v>
+      </c>
+      <c r="K34" s="28">
+        <v>22.275297349162116</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.11804907663224147</v>
+      </c>
       <c r="O34" s="47"/>
       <c r="P34" s="47"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="28"/>
-      <c r="W34" s="29"/>
+      <c r="Q34" s="49">
+        <v>4.6803419203579999</v>
+      </c>
+      <c r="R34" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S34" s="49">
+        <v>25.738667462221997</v>
+      </c>
+      <c r="T34" s="49">
+        <v>34.84199570098</v>
+      </c>
+      <c r="U34" s="28">
+        <v>0.12568369528142398</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0.1261542248671374</v>
+      </c>
+      <c r="W34" s="29">
+        <v>8.1441996460748243</v>
+      </c>
+      <c r="X34" s="11">
+        <v>0.12863358320104518</v>
+      </c>
       <c r="AC34" s="11">
         <v>5</v>
       </c>
@@ -3413,21 +3585,56 @@
     <row r="35" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="28"/>
+      <c r="E35" s="44">
+        <v>5.0190396047999997</v>
+      </c>
+      <c r="F35" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G35" s="44">
+        <v>38.160110328600005</v>
+      </c>
+      <c r="H35" s="44">
+        <v>29.816182763379999</v>
+      </c>
+      <c r="I35" s="28">
+        <v>7.9980278392255819</v>
+      </c>
+      <c r="J35" s="32">
+        <v>9.2538905080132988E-2</v>
+      </c>
+      <c r="K35" s="28">
+        <v>22.275297349162116</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.10743223086948205</v>
+      </c>
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="28"/>
-      <c r="W35" s="29"/>
+      <c r="Q35" s="49">
+        <v>4.2739983967980031</v>
+      </c>
+      <c r="R35" s="47">
+        <v>3.2</v>
+      </c>
+      <c r="S35" s="49">
+        <v>15.388986721601999</v>
+      </c>
+      <c r="T35" s="49">
+        <v>34.957170580800003</v>
+      </c>
+      <c r="U35" s="28">
+        <v>1.0508815461420795E-2</v>
+      </c>
+      <c r="V35" s="11">
+        <v>0.11520161646442229</v>
+      </c>
+      <c r="W35" s="29">
+        <v>8.1441996460748243</v>
+      </c>
+      <c r="X35" s="11">
+        <v>0.11540892353902278</v>
+      </c>
       <c r="AC35" s="11">
         <v>6</v>
       </c>
@@ -3450,13 +3657,30 @@
     <row r="36" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="28"/>
+      <c r="E36" s="44">
+        <v>5.5047581221099975</v>
+      </c>
+      <c r="F36" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G36" s="44">
+        <v>41.817992262799997</v>
+      </c>
+      <c r="H36" s="44">
+        <v>21.39021320462</v>
+      </c>
+      <c r="I36" s="28">
+        <v>11.655909773425574</v>
+      </c>
+      <c r="J36" s="32">
+        <v>0.10149437531113625</v>
+      </c>
+      <c r="K36" s="28">
+        <v>22.275297349162116</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0.12319913367362945</v>
+      </c>
       <c r="O36" s="47"/>
       <c r="P36" s="47"/>
       <c r="Q36" s="49"/>
@@ -3487,13 +3711,30 @@
     <row r="37" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="28"/>
+      <c r="E37" s="44">
+        <v>3.8401325642939987</v>
+      </c>
+      <c r="F37" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G37" s="44">
+        <v>44.568812046200001</v>
+      </c>
+      <c r="H37" s="44">
+        <v>21.241518794106</v>
+      </c>
+      <c r="I37" s="28">
+        <v>14.406729556825578</v>
+      </c>
+      <c r="J37" s="32">
+        <v>7.080272140560058E-2</v>
+      </c>
+      <c r="K37" s="28">
+        <v>22.275297349162116</v>
+      </c>
+      <c r="L37" s="11">
+        <v>9.7629849437905994E-2</v>
+      </c>
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
       <c r="Q37" s="49"/>
